--- a/LDV_Data.xlsx
+++ b/LDV_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\FAVs_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bayesian_FAV_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B20E1-E312-4A1E-9D0F-5E1ABCD1ED68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A93F479-709C-4F6B-9CA2-DB9E98BB9845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
   <si>
     <t>Class</t>
   </si>
@@ -642,6 +634,42 @@
   </si>
   <si>
     <t>28553-12-0</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>78-40-0</t>
+  </si>
+  <si>
+    <t>TPrP</t>
+  </si>
+  <si>
+    <t>513-08-6</t>
+  </si>
+  <si>
+    <t>TiBP</t>
+  </si>
+  <si>
+    <t>126-71-6</t>
+  </si>
+  <si>
+    <t>TnBP</t>
+  </si>
+  <si>
+    <t>126-73-8</t>
+  </si>
+  <si>
+    <t>TPPO</t>
+  </si>
+  <si>
+    <t>791-28-6</t>
+  </si>
+  <si>
+    <t>B4tBPPP</t>
+  </si>
+  <si>
+    <t>115-87-7</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6089F3A3-B933-43E9-8E92-242433A56B01}">
-  <dimension ref="A1:AT75"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I53" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,19 +4957,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E29">
-        <v>81.233333333333334</v>
+        <v>56.424999999999997</v>
       </c>
       <c r="F29">
-        <v>2.9091808698211468</v>
+        <v>4.0266808871132165</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4962,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-79.8</v>
+        <v>-65</v>
       </c>
       <c r="O29">
-        <v>14.117011015083925</v>
+        <v>4.1182754457182176</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4989,46 +5017,46 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>7.914452287052451</v>
+        <v>5.21</v>
       </c>
       <c r="X29">
-        <v>6.3438854805062408E-2</v>
+        <v>0.13414613224126404</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1.6487788978175042</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.19072172315272956</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AB29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>-5.8322257206709365</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.7496677162012808</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>-1.3849533306583126</v>
+        <v>1.6546478151372854</v>
       </c>
       <c r="AG29">
-        <v>0.17815080358449792</v>
+        <v>9.1425816944937455E-2</v>
       </c>
       <c r="AH29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI29">
-        <v>1.4162808651238727</v>
+        <v>3.4354676142742648</v>
       </c>
       <c r="AJ29">
-        <v>2.992467579434344E-2</v>
+        <v>1.0306402842822795</v>
       </c>
       <c r="AK29">
         <v>3</v>
@@ -5052,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>-45</v>
+        <v>-56.2</v>
       </c>
       <c r="AS29">
-        <v>14.142135623730951</v>
+        <v>0.23094010767584949</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -5069,19 +5097,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E30">
-        <v>90.566666666666663</v>
+        <v>75.08</v>
       </c>
       <c r="F30">
-        <v>9.2251467919666919</v>
+        <v>5.3579654586523757</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5102,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>-90.3</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>15.703821191035079</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -5129,49 +5157,49 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>8.5999801895500738</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.93553903324940713</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>2.6349999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="AA30">
-        <v>6.3639610306789496E-2</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AB30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>-4.5560193087319867</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.366805792619596</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>-2.0793529564966393</v>
+        <v>3.9810554148350386E-2</v>
       </c>
       <c r="AG30">
-        <v>0.83649137759001246</v>
+        <v>6.3165167330037466E-3</v>
       </c>
       <c r="AH30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0.56851833009543651</v>
+        <v>-1.5406075122407692</v>
       </c>
       <c r="AJ30">
-        <v>8.5459697155219894E-2</v>
+        <v>0.46218225367223076</v>
       </c>
       <c r="AK30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -5192,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>-45.5</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>7.7781745930520225</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -5206,19 +5234,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>73.579280213433478</v>
       </c>
       <c r="F31">
-        <v>5.0239426748321856</v>
+        <v>9.6108129578966537</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -5242,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-93.066666666666663</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>5.7500724633115148</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5269,22 +5297,22 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>10.196734960730311</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>0.35717875532112214</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>3.7354013998198079</v>
+        <v>3.72</v>
       </c>
       <c r="AA31">
-        <v>5.478325049151412E-2</v>
+        <v>0.2521806974790135</v>
       </c>
       <c r="AB31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -5296,22 +5324,22 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>-3.8968901507926397</v>
+        <v>-0.48126167744393333</v>
       </c>
       <c r="AG31">
-        <v>0.8017700738440946</v>
+        <v>0.11783463401677403</v>
       </c>
       <c r="AH31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI31">
-        <v>-1.5157161364205862</v>
+        <v>-7.0988371796333744E-3</v>
       </c>
       <c r="AJ31">
-        <v>0.23853678415206614</v>
+        <v>4.6885273026846148E-3</v>
       </c>
       <c r="AK31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -5332,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>27</v>
+        <v>-60</v>
       </c>
       <c r="AS31">
-        <v>8.1</v>
+        <v>2.7699430313116928</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -5346,31 +5374,31 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="E32">
-        <v>94.320000000000007</v>
+        <v>77.756666666666661</v>
       </c>
       <c r="F32">
-        <v>8.6586373061816122</v>
+        <v>3.3164187512033716</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-21.437204504851408</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4.2874409009702816</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5382,76 +5410,76 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>-95.100000000000009</v>
+        <v>-80.2</v>
       </c>
       <c r="O32">
-        <v>5.8077534382926403</v>
+        <v>14.849242404917437</v>
       </c>
       <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>7.4950000000000001</v>
+      </c>
+      <c r="X32">
+        <v>7.7781745930519827E-2</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>3.9971606868913212</v>
+      </c>
+      <c r="AA32">
+        <v>1.012674051761338E-2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>-0.96840832213366246</v>
+      </c>
+      <c r="AG32">
+        <v>0.25994612154186569</v>
+      </c>
+      <c r="AH32">
         <v>3</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>10.202624059176518</v>
-      </c>
-      <c r="X32">
-        <v>0.16599464740887165</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>4.281560068433973</v>
-      </c>
-      <c r="AA32">
-        <v>0.75778339429101471</v>
-      </c>
-      <c r="AB32">
-        <v>4</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>-3.6388660479834938</v>
-      </c>
-      <c r="AG32">
-        <v>0.42628200846392272</v>
-      </c>
-      <c r="AH32">
-        <v>5</v>
-      </c>
       <c r="AI32">
-        <v>-2.3752720246754775</v>
+        <v>0.12912422184350617</v>
       </c>
       <c r="AJ32">
-        <v>0.18822354636508534</v>
+        <v>9.4534838877287433E-2</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -5463,22 +5491,22 @@
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>91.84</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>7.2387944533560509</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>49.708333333333336</v>
+        <v>-80</v>
       </c>
       <c r="AS32">
-        <v>0.6003471218109292</v>
+        <v>3.6932573750822573</v>
       </c>
       <c r="AT32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
@@ -5486,31 +5514,31 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="E33">
-        <v>109.58571428571429</v>
+        <v>101.4</v>
       </c>
       <c r="F33">
-        <v>7.9982140863713171</v>
+        <v>7.2362506327564056</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>22.132368777024709</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4.4264737554049418</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -5522,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>-102</v>
+        <v>-101.5</v>
       </c>
       <c r="O33">
-        <v>6.4625245455885869</v>
+        <v>6.4308455036984471</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -5549,22 +5577,22 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>11.064474887288533</v>
+        <v>11</v>
       </c>
       <c r="X33">
-        <v>0.28488608664306192</v>
+        <v>0.28322599897387801</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>0.19184714351226026</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5576,22 +5604,22 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-4.9827157586780739</v>
+        <v>-4.3260580013659125</v>
       </c>
       <c r="AG33">
-        <v>0.66020783020185903</v>
+        <v>0.68639129341797445</v>
       </c>
       <c r="AH33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>6.8766978856811892E-2</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>8.5033524110052442E-3</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -5612,13 +5640,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>25.5</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="AS33">
-        <v>1.1772257883074695</v>
+        <v>7.0710678118670822E-2</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
@@ -5626,22 +5654,22 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="E34">
-        <v>96.174999999999997</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>7.2168783648703219</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5662,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>-97.9</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>6.2027564020894381</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -5689,22 +5717,22 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>10.720407474148484</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>0.27602710147933929</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>0.12020815280171303</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5716,19 +5744,19 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-4.0295295311185804</v>
+        <v>-3.3442177994290483</v>
       </c>
       <c r="AG34">
-        <v>0.33620127189764476</v>
+        <v>0.53060823042519367</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>-2.1255891224464589</v>
+        <v>-2.1445400588030026</v>
       </c>
       <c r="AJ34">
-        <v>0.63767673673393765</v>
+        <v>0.26518221656197488</v>
       </c>
       <c r="AK34">
         <v>1</v>
@@ -5752,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>-10.95</v>
+        <v>-21</v>
       </c>
       <c r="AS34">
-        <v>0.50551460321438391</v>
+        <v>0.96948006095909256</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -5766,22 +5794,22 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E35">
-        <v>107.25</v>
+        <v>81.233333333333334</v>
       </c>
       <c r="F35">
-        <v>4.1154181642533825</v>
+        <v>2.9091808698211468</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5802,13 +5830,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-104</v>
+        <v>-79.8</v>
       </c>
       <c r="O35">
-        <v>6.5892407131491479</v>
+        <v>14.117011015083925</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -5829,22 +5857,22 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>11.296948484835518</v>
+        <v>7.914452287052451</v>
       </c>
       <c r="X35">
-        <v>0.29087177454308882</v>
+        <v>6.3438854805062408E-2</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1.6487788978175042</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>0.19072172315272956</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -5856,22 +5884,22 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>-4.8811502522142618</v>
+        <v>-1.3849533306583126</v>
       </c>
       <c r="AG35">
-        <v>0.52309835760605849</v>
+        <v>0.17815080358449792</v>
       </c>
       <c r="AH35">
         <v>4</v>
       </c>
       <c r="AI35">
-        <v>-3.6970513553893394</v>
+        <v>1.4162808651238727</v>
       </c>
       <c r="AJ35">
-        <v>1.1091154066168019</v>
+        <v>2.992467579434344E-2</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -5892,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>76.875</v>
+        <v>-45</v>
       </c>
       <c r="AS35">
-        <v>0.62915286960589578</v>
+        <v>14.142135623730951</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -5906,22 +5934,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E36">
-        <v>106.39999999999999</v>
+        <v>90.566666666666663</v>
       </c>
       <c r="F36">
-        <v>3.9564293666554136</v>
+        <v>9.2251467919666919</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5942,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>-103.56666666666666</v>
+        <v>-90.3</v>
       </c>
       <c r="O36">
-        <v>7.4875452141094492</v>
+        <v>15.703821191035079</v>
       </c>
       <c r="P36">
         <v>3</v>
@@ -5969,22 +5997,22 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>11.043333333333331</v>
+        <v>8.5999801895500738</v>
       </c>
       <c r="X36">
-        <v>0.48335632129241141</v>
+        <v>0.93553903324940713</v>
       </c>
       <c r="Y36">
         <v>3</v>
       </c>
       <c r="Z36">
-        <v>4.0149999999999997</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="AA36">
-        <v>0.41137979208188291</v>
+        <v>6.3639610306789496E-2</v>
       </c>
       <c r="AB36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -5996,22 +6024,22 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>-4.5257014829074143</v>
+        <v>-2.0793529564966393</v>
       </c>
       <c r="AG36">
-        <v>0.26343339067048643</v>
+        <v>0.83649137759001246</v>
       </c>
       <c r="AH36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI36">
-        <v>0.22099596443744718</v>
+        <v>0.56851833009543651</v>
       </c>
       <c r="AJ36">
-        <v>0.15524653687336698</v>
+        <v>8.5459697155219894E-2</v>
       </c>
       <c r="AK36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -6032,13 +6060,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>-70</v>
+        <v>-45.5</v>
       </c>
       <c r="AS36">
-        <v>3.2316002031969751</v>
+        <v>7.7781745930520225</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
@@ -6046,22 +6074,22 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E37">
-        <v>108.8053199021883</v>
+        <v>97</v>
       </c>
       <c r="F37">
-        <v>2.7599602935757312</v>
+        <v>5.0239426748321856</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6082,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>-105.63333333333333</v>
+        <v>-93.066666666666663</v>
       </c>
       <c r="O37">
-        <v>5.6109268396584868</v>
+        <v>5.7500724633115148</v>
       </c>
       <c r="P37">
         <v>3</v>
@@ -6109,50 +6137,50 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>11.254058807284656</v>
+        <v>10.196734960730311</v>
       </c>
       <c r="X37">
-        <v>0.56090842337414826</v>
+        <v>0.35717875532112214</v>
       </c>
       <c r="Y37">
         <v>3</v>
       </c>
       <c r="Z37">
-        <v>4.4551030939086207</v>
+        <v>3.7354013998198079</v>
       </c>
       <c r="AA37">
-        <v>0.51039582393287042</v>
+        <v>5.478325049151412E-2</v>
       </c>
       <c r="AB37">
+        <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>-3.8968901507926397</v>
+      </c>
+      <c r="AG37">
+        <v>0.8017700738440946</v>
+      </c>
+      <c r="AH37">
+        <v>5</v>
+      </c>
+      <c r="AI37">
+        <v>-1.5157161364205862</v>
+      </c>
+      <c r="AJ37">
+        <v>0.23853678415206614</v>
+      </c>
+      <c r="AK37">
         <v>3</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>-4.6558136987291556</v>
-      </c>
-      <c r="AG37">
-        <v>0.27719074419421286</v>
-      </c>
-      <c r="AH37">
-        <v>7</v>
-      </c>
-      <c r="AI37">
-        <v>-4.7043664347305514</v>
-      </c>
-      <c r="AJ37">
-        <v>2.6083556879317391</v>
-      </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
       <c r="AL37">
         <v>0</v>
       </c>
@@ -6172,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>-72</v>
+        <v>27</v>
       </c>
       <c r="AS37">
-        <v>2.8284271247461903</v>
+        <v>8.1</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
@@ -6186,22 +6214,22 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E38">
-        <v>135</v>
+        <v>94.320000000000007</v>
       </c>
       <c r="F38">
-        <v>9.6340614933147393</v>
+        <v>8.6586373061816122</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6222,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-95.100000000000009</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>5.8077534382926403</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -6249,22 +6277,22 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>10.202624059176518</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.16599464740887165</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>4.281560068433973</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>0.75778339429101471</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -6276,22 +6304,22 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>-5.9337440369338292</v>
+        <v>-3.6388660479834938</v>
       </c>
       <c r="AG38">
-        <v>0.94147379508925533</v>
+        <v>0.42628200846392272</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>-2.3752720246754775</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>0.18822354636508534</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -6303,22 +6331,22 @@
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>91.84</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>7.2387944533560509</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>99.75</v>
+        <v>49.708333333333336</v>
       </c>
       <c r="AS38">
-        <v>0.35355339059327379</v>
+        <v>0.6003471218109292</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
@@ -6326,104 +6354,104 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E39">
-        <v>111.56666666666666</v>
+        <v>109.58571428571429</v>
       </c>
       <c r="F39">
-        <v>4.8850110883531626</v>
+        <v>7.9982140863713171</v>
       </c>
       <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>-102</v>
+      </c>
+      <c r="O39">
+        <v>6.4625245455885869</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>11.064474887288533</v>
+      </c>
+      <c r="X39">
+        <v>0.28488608664306192</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>-4.9827157586780739</v>
+      </c>
+      <c r="AG39">
+        <v>0.66020783020185903</v>
+      </c>
+      <c r="AH39">
         <v>3</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>-106.65</v>
-      </c>
-      <c r="O39">
-        <v>0.91923881554250975</v>
-      </c>
-      <c r="P39">
-        <v>2</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>11.609699222331166</v>
-      </c>
-      <c r="X39">
-        <v>0.24084166946195062</v>
-      </c>
-      <c r="Y39">
-        <v>2</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>-5.2702642012958201</v>
-      </c>
-      <c r="AG39">
-        <v>0.18378959287479971</v>
-      </c>
-      <c r="AH39">
-        <v>4</v>
-      </c>
       <c r="AI39">
         <v>0</v>
       </c>
@@ -6452,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1.1772257883074695</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -6466,19 +6494,19 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E40">
-        <v>98.617666666666665</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="F40">
-        <v>11.372626624194313</v>
+        <v>7.2168783648703219</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -6502,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-99.75</v>
+        <v>-97.9</v>
       </c>
       <c r="O40">
-        <v>6.7175144212722016</v>
+        <v>6.2027564020894381</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -6529,49 +6557,49 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>10.879999999999999</v>
+        <v>10.720407474148484</v>
       </c>
       <c r="X40">
-        <v>0.45254833995938959</v>
+        <v>0.27602710147933929</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>5.5325137523428518</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.4666388278829241</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-5.5353437273052064</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>1.6606031181915619</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>-4.2249019599857434</v>
+        <v>-4.0295295311185804</v>
       </c>
       <c r="AG40">
-        <v>0.21483584436789924</v>
+        <v>0.33620127189764476</v>
       </c>
       <c r="AH40">
         <v>3</v>
       </c>
       <c r="AI40">
-        <v>-2.8238365561540544</v>
+        <v>-2.1255891224464589</v>
       </c>
       <c r="AJ40">
-        <v>0.90185046293129689</v>
+        <v>0.63767673673393765</v>
       </c>
       <c r="AK40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -6592,13 +6620,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>-67</v>
+        <v>-10.95</v>
       </c>
       <c r="AS40">
-        <v>18.384776310850235</v>
+        <v>0.50551460321438391</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
@@ -6606,22 +6634,22 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E41">
-        <v>77.2</v>
+        <v>107.25</v>
       </c>
       <c r="F41">
-        <v>5.5092559058066515</v>
+        <v>4.1154181642533825</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6642,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -6669,22 +6697,22 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>11.296948484835518</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>0.29087177454308882</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>4.6850000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.41719300090006356</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -6696,22 +6724,22 @@
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>-4.3871611703129787</v>
+        <v>-4.8811502522142618</v>
       </c>
       <c r="AG41">
-        <v>0.69608618959187496</v>
+        <v>0.52309835760605849</v>
       </c>
       <c r="AH41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI41">
-        <v>-2.2900095802422902</v>
+        <v>-3.6970513553893394</v>
       </c>
       <c r="AJ41">
-        <v>0.49424642991199053</v>
+        <v>1.1091154066168019</v>
       </c>
       <c r="AK41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -6732,64 +6760,64 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>119.5</v>
+        <v>76.875</v>
       </c>
       <c r="AS41">
-        <v>5.5168032040291219</v>
+        <v>0.62915286960589578</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E42">
-        <v>102.97044542908371</v>
+        <v>106.39999999999999</v>
       </c>
       <c r="F42">
-        <v>8.2645317733743067</v>
+        <v>3.9564293666554136</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>28.535700146660066</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>9.3194645443453155</v>
+        <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>-103.56666666666666</v>
+      </c>
+      <c r="O42">
+        <v>7.4875452141094492</v>
+      </c>
+      <c r="P42">
         <v>3</v>
       </c>
-      <c r="K42">
-        <v>7.6253721994684973</v>
-      </c>
-      <c r="L42">
-        <v>2.2876116598405489</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>-101.25</v>
-      </c>
-      <c r="O42">
-        <v>2.616295090390218</v>
-      </c>
-      <c r="P42">
-        <v>2</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
@@ -6800,105 +6828,105 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>-25.4</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>11.228588497286774</v>
+        <v>11.043333333333331</v>
       </c>
       <c r="X42">
-        <v>0.46868664186349301</v>
+        <v>0.48335632129241141</v>
       </c>
       <c r="Y42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z42">
-        <v>6.1318209339345842</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="AA42">
-        <v>0.2700030284701323</v>
+        <v>0.41137979208188291</v>
       </c>
       <c r="AB42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC42">
-        <v>-4.5228787452803374</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>0.90457574905606752</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>-4.6349999999999998</v>
+        <v>-4.5257014829074143</v>
       </c>
       <c r="AG42">
-        <v>0.57275649276110319</v>
+        <v>0.26343339067048643</v>
       </c>
       <c r="AH42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI42">
-        <v>-4.1856271642104357</v>
+        <v>0.22099596443744718</v>
       </c>
       <c r="AJ42">
-        <v>0.27611870329049543</v>
+        <v>0.15524653687336698</v>
       </c>
       <c r="AK42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AL42">
-        <v>2.2353977200130184</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>0.44707954400260369</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>36.703691924967444</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.8061861822140384</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>177.33333333333334</v>
+        <v>-70</v>
       </c>
       <c r="AS42">
-        <v>1.5275252316519465</v>
+        <v>3.2316002031969751</v>
       </c>
       <c r="AT42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E43">
-        <v>105.49559435946666</v>
+        <v>108.8053199021883</v>
       </c>
       <c r="F43">
-        <v>7.5751191460147407</v>
+        <v>2.7599602935757312</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -6922,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>-100.05</v>
+        <v>-105.63333333333333</v>
       </c>
       <c r="O43">
-        <v>2.0506096654409918</v>
+        <v>5.6109268396584868</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -6949,22 +6977,22 @@
         <v>0</v>
       </c>
       <c r="W43">
-        <v>11.073997910243794</v>
+        <v>11.254058807284656</v>
       </c>
       <c r="X43">
-        <v>0.41861016982400551</v>
+        <v>0.56090842337414826</v>
       </c>
       <c r="Y43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z43">
-        <v>5.6850000000000005</v>
+        <v>4.4551030939086207</v>
       </c>
       <c r="AA43">
-        <v>0.36062445840513968</v>
+        <v>0.51039582393287042</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -6976,22 +7004,22 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>-4.6904457173535388</v>
+        <v>-4.6558136987291556</v>
       </c>
       <c r="AG43">
-        <v>0.35274120168317763</v>
+        <v>0.27719074419421286</v>
       </c>
       <c r="AH43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI43">
-        <v>-3.5173626058676488</v>
+        <v>-4.7043664347305514</v>
       </c>
       <c r="AJ43">
-        <v>0.25242396939971701</v>
+        <v>2.6083556879317391</v>
       </c>
       <c r="AK43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -7012,45 +7040,45 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>216.61666666666667</v>
+        <v>-72</v>
       </c>
       <c r="AS43">
-        <v>0.53928965624545278</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="AT43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E44">
-        <v>94.14</v>
+        <v>135</v>
       </c>
       <c r="F44">
-        <v>4.4506179346243595</v>
+        <v>9.6340614933147393</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2.9800000000000004</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -7062,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>-93.4</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>4.6669047558312196</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -7080,31 +7108,31 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>-21.7</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>4.34</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>10.434999999999999</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>0.13435028842544369</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>6.6174999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.39969780251251513</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -7116,22 +7144,22 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>-3.7075139892385729</v>
+        <v>-5.9337440369338292</v>
       </c>
       <c r="AG44">
-        <v>0.19995588786711851</v>
+        <v>0.94147379508925533</v>
       </c>
       <c r="AH44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI44">
-        <v>-4.0697069918861315</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <v>7.1457772538696201E-2</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -7143,42 +7171,42 @@
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>48.472961613897454</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>3.820620706319922</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>83.875</v>
+        <v>99.75</v>
       </c>
       <c r="AS44">
-        <v>0.17677669529663689</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E45">
-        <v>96.833333333333329</v>
+        <v>111.56666666666666</v>
       </c>
       <c r="F45">
-        <v>2.9704096238285618</v>
+        <v>4.8850110883531626</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7202,13 +7230,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>-103</v>
+        <v>-106.65</v>
       </c>
       <c r="O45">
-        <v>6.5258826293688674</v>
+        <v>0.91923881554250975</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -7229,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>10.655000000000001</v>
+        <v>11.609699222331166</v>
       </c>
       <c r="X45">
-        <v>0.23334523779156074</v>
+        <v>0.24084166946195062</v>
       </c>
       <c r="Y45">
         <v>2</v>
@@ -7256,22 +7284,22 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-3.8064674031393619</v>
+        <v>-5.2702642012958201</v>
       </c>
       <c r="AG45">
-        <v>0.15897540206098351</v>
+        <v>0.18378959287479971</v>
       </c>
       <c r="AH45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI45">
-        <v>-3.6293678108253968</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0.44878797989465358</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -7292,36 +7320,36 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>4.8935660219839905</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>98.617666666666665</v>
       </c>
       <c r="F46">
-        <v>7.136341846899807</v>
+        <v>11.372626624194313</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -7342,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>-98.4</v>
+        <v>-99.75</v>
       </c>
       <c r="O46">
-        <v>6.2344354439795788</v>
+        <v>6.7175144212722016</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -7369,49 +7397,49 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>10.361775178295694</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="X46">
-        <v>0.26679310236504827</v>
+        <v>0.45254833995938959</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>5.5325137523428518</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>0.4666388278829241</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>-5.5353437273052064</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.6606031181915619</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
-        <v>-3.7529626300087369</v>
+        <v>-4.2249019599857434</v>
       </c>
       <c r="AG46">
-        <v>0.59546147392098581</v>
+        <v>0.21483584436789924</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>-2.8238365561540544</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>0.90185046293129689</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -7432,36 +7460,36 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>18.384776310850235</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E47">
-        <v>113</v>
+        <v>77.2</v>
       </c>
       <c r="F47">
-        <v>15.556349186104045</v>
+        <v>5.5092559058066515</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -7482,13 +7510,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>7.7296862211941928</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -7509,19 +7537,19 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>11.375613387532628</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>0.34734978374903991</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>6.98</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="AA47">
-        <v>0.36769552621700502</v>
+        <v>0.41719300090006356</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -7536,19 +7564,19 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>-4.4248091794189603</v>
+        <v>-4.3871611703129787</v>
       </c>
       <c r="AG47">
-        <v>0.1257038377706223</v>
+        <v>0.69608618959187496</v>
       </c>
       <c r="AH47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>-3.9164203700479505</v>
+        <v>-2.2900095802422902</v>
       </c>
       <c r="AJ47">
-        <v>0.21552936573178999</v>
+        <v>0.49424642991199053</v>
       </c>
       <c r="AK47">
         <v>2</v>
@@ -7572,185 +7600,185 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>99</v>
+        <v>119.5</v>
       </c>
       <c r="AS47">
-        <v>2.1213203435596424</v>
+        <v>5.5168032040291219</v>
       </c>
       <c r="AT47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E48">
-        <v>100.15</v>
+        <v>102.97044542908371</v>
       </c>
       <c r="F48">
-        <v>9.0053687690547495</v>
+        <v>8.2645317733743067</v>
       </c>
       <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>28.535700146660066</v>
+      </c>
+      <c r="I48">
+        <v>9.3194645443453155</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>7.6253721994684973</v>
+      </c>
+      <c r="L48">
+        <v>2.2876116598405489</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>-101.25</v>
+      </c>
+      <c r="O48">
+        <v>2.616295090390218</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-25.4</v>
+      </c>
+      <c r="U48">
+        <v>5.08</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>11.228588497286774</v>
+      </c>
+      <c r="X48">
+        <v>0.46868664186349301</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>6.1318209339345842</v>
+      </c>
+      <c r="AA48">
+        <v>0.2700030284701323</v>
+      </c>
+      <c r="AB48">
+        <v>5</v>
+      </c>
+      <c r="AC48">
+        <v>-4.5228787452803374</v>
+      </c>
+      <c r="AD48">
+        <v>0.90457574905606752</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>-4.6349999999999998</v>
+      </c>
+      <c r="AG48">
+        <v>0.57275649276110319</v>
+      </c>
+      <c r="AH48">
+        <v>9</v>
+      </c>
+      <c r="AI48">
+        <v>-4.1856271642104357</v>
+      </c>
+      <c r="AJ48">
+        <v>0.27611870329049543</v>
+      </c>
+      <c r="AK48">
+        <v>11</v>
+      </c>
+      <c r="AL48">
+        <v>2.2353977200130184</v>
+      </c>
+      <c r="AM48">
+        <v>0.44707954400260369</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>36.703691924967444</v>
+      </c>
+      <c r="AP48">
+        <v>2.8061861822140384</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>177.33333333333334</v>
+      </c>
+      <c r="AS48">
+        <v>1.5275252316519465</v>
+      </c>
+      <c r="AT48">
         <v>4</v>
-      </c>
-      <c r="H48">
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="I48">
-        <v>0.62000000000000033</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>-91.1</v>
-      </c>
-      <c r="O48">
-        <v>27.33</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>11.200000000000001</v>
-      </c>
-      <c r="X48">
-        <v>0.1652271164185832</v>
-      </c>
-      <c r="Y48">
-        <v>3</v>
-      </c>
-      <c r="Z48">
-        <v>7.1433333333333335</v>
-      </c>
-      <c r="AA48">
-        <v>0.36828431046317112</v>
-      </c>
-      <c r="AB48">
-        <v>3</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>-4.4678337478400705</v>
-      </c>
-      <c r="AG48">
-        <v>0.28281797910706313</v>
-      </c>
-      <c r="AH48">
-        <v>4</v>
-      </c>
-      <c r="AI48">
-        <v>-4.2554666846671543</v>
-      </c>
-      <c r="AJ48">
-        <v>0.29719362983561631</v>
-      </c>
-      <c r="AK48">
-        <v>3</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>77.464788732394354</v>
-      </c>
-      <c r="AP48">
-        <v>6.1057456773350891</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>86.283333333333346</v>
-      </c>
-      <c r="AS48">
-        <v>7.5306872196367154</v>
-      </c>
-      <c r="AT48">
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E49">
-        <v>73.524218355999992</v>
+        <v>105.49559435946666</v>
       </c>
       <c r="F49">
-        <v>0.10717142872373359</v>
+        <v>7.5751191460147407</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>7.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7762,13 +7790,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>-61.2</v>
+        <v>-100.05</v>
       </c>
       <c r="O49">
-        <v>3.8775147273531525</v>
+        <v>2.0506096654409918</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -7789,108 +7817,108 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>7.5390552184404918</v>
+        <v>11.073997910243794</v>
       </c>
       <c r="X49">
-        <v>0.19411422232382147</v>
+        <v>0.41861016982400551</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>5.26</v>
+        <v>5.6850000000000005</v>
       </c>
       <c r="AA49">
-        <v>0.3111269837220812</v>
+        <v>0.36062445840513968</v>
       </c>
       <c r="AB49">
         <v>2</v>
       </c>
       <c r="AC49">
-        <v>-1.9124978394296193</v>
+        <v>0</v>
       </c>
       <c r="AD49">
-        <v>0.16164821075426294</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>-1.1806733242754686</v>
+        <v>-4.6904457173535388</v>
       </c>
       <c r="AG49">
-        <v>0.14119223273996104</v>
+        <v>0.35274120168317763</v>
       </c>
       <c r="AH49">
+        <v>4</v>
+      </c>
+      <c r="AI49">
+        <v>-3.5173626058676488</v>
+      </c>
+      <c r="AJ49">
+        <v>0.25242396939971701</v>
+      </c>
+      <c r="AK49">
+        <v>2</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>216.61666666666667</v>
+      </c>
+      <c r="AS49">
+        <v>0.53928965624545278</v>
+      </c>
+      <c r="AT49">
         <v>3</v>
-      </c>
-      <c r="AI49">
-        <v>-2.4696037487087663</v>
-      </c>
-      <c r="AJ49">
-        <v>0.26889462132834718</v>
-      </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>91</v>
-      </c>
-      <c r="AS49">
-        <v>4.2010802641560678</v>
-      </c>
-      <c r="AT49">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E50">
-        <v>80.262301825000009</v>
+        <v>94.14</v>
       </c>
       <c r="F50">
-        <v>3.164583107582521</v>
+        <v>4.4506179346243595</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -7902,13 +7930,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>-70.099999999999994</v>
+        <v>-93.4</v>
       </c>
       <c r="O50">
-        <v>4.441401672997646</v>
+        <v>4.6669047558312196</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -7920,58 +7948,58 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>-21.7</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>7.993297276476711</v>
+        <v>10.434999999999999</v>
       </c>
       <c r="X50">
-        <v>0.20580996420229952</v>
+        <v>0.13435028842544369</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>5.71</v>
+        <v>6.6174999999999997</v>
       </c>
       <c r="AA50">
-        <v>1.1420000000000001</v>
+        <v>0.39969780251251513</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC50">
-        <v>-2.087498225774242</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>0.41749964515484844</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>-1.4403667064642687</v>
+        <v>-3.7075139892385729</v>
       </c>
       <c r="AG50">
-        <v>0.12779782186875707</v>
+        <v>0.19995588786711851</v>
       </c>
       <c r="AH50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI50">
-        <v>-2.98523196960676</v>
+        <v>-4.0697069918861315</v>
       </c>
       <c r="AJ50">
-        <v>0.36913762809068135</v>
+        <v>7.1457772538696201E-2</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -7983,54 +8011,54 @@
         <v>0</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>48.472961613897454</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>3.820620706319922</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50">
-        <v>57.75</v>
+        <v>83.875</v>
       </c>
       <c r="AS50">
-        <v>0.35355339059327379</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E51">
-        <v>77.099999999999994</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="F51">
-        <v>5.5021195639597513</v>
+        <v>2.9704096238285618</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>6.36</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -8042,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>-76.099999999999994</v>
+        <v>-103</v>
       </c>
       <c r="O51">
-        <v>4.8215501756793282</v>
+        <v>6.5258826293688674</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -8069,46 +8097,46 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>9.0261907024857795</v>
+        <v>10.655000000000001</v>
       </c>
       <c r="X51">
-        <v>0.23240471624002404</v>
+        <v>0.23334523779156074</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>6.4024999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>1.2805</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-2.5192965017072471</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>0.50385930034144943</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>-2.4598699455590731</v>
+        <v>-3.8064674031393619</v>
       </c>
       <c r="AG51">
-        <v>0.15642979300815249</v>
+        <v>0.15897540206098351</v>
       </c>
       <c r="AH51">
         <v>3</v>
       </c>
       <c r="AI51">
-        <v>-4.4217108558101943</v>
+        <v>-3.6293678108253968</v>
       </c>
       <c r="AJ51">
-        <v>0.54676483235961115</v>
+        <v>0.44878797989465358</v>
       </c>
       <c r="AK51">
         <v>1</v>
@@ -8132,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="AS51">
-        <v>3.5085945063281443</v>
+        <v>4.8935660219839905</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -8143,25 +8171,25 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E52">
-        <v>77.521050303999999</v>
+        <v>100</v>
       </c>
       <c r="F52">
-        <v>3.0417753598014903</v>
+        <v>7.136341846899807</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -8182,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>-63.8</v>
+        <v>-98.4</v>
       </c>
       <c r="O52">
-        <v>4.042245745181881</v>
+        <v>6.2344354439795788</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -8209,22 +8237,22 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>7.6828040702811879</v>
+        <v>10.361775178295694</v>
       </c>
       <c r="X52">
-        <v>2.1784930946130668E-2</v>
+        <v>0.26679310236504827</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>5.2862499999999999</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>1.9445436482629957E-2</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -8236,22 +8264,22 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>-1.1641242474646873</v>
+        <v>-3.7529626300087369</v>
       </c>
       <c r="AG52">
-        <v>0.17316928979703319</v>
+        <v>0.59546147392098581</v>
       </c>
       <c r="AH52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI52">
-        <v>-3.2819205999699497</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0.44450077171695895</v>
+        <v>0</v>
       </c>
       <c r="AK52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>0</v>
@@ -8272,33 +8300,33 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>29.083333333333332</v>
+        <v>0</v>
       </c>
       <c r="AS52">
-        <v>0.38188130791298669</v>
+        <v>0</v>
       </c>
       <c r="AT52">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E53">
-        <v>85.341688061999989</v>
+        <v>113</v>
       </c>
       <c r="F53">
-        <v>1.7560120975171565</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -8322,10 +8350,10 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>-83</v>
+        <v>-122</v>
       </c>
       <c r="O53">
-        <v>5.2587209537632624</v>
+        <v>7.7296862211941928</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -8349,46 +8377,46 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>9.5354454649199933</v>
+        <v>11.375613387532628</v>
       </c>
       <c r="X53">
-        <v>6.0454967129327825E-2</v>
+        <v>0.34734978374903991</v>
       </c>
       <c r="Y53">
         <v>2</v>
       </c>
       <c r="Z53">
-        <v>6.665</v>
+        <v>6.98</v>
       </c>
       <c r="AA53">
-        <v>0.16263455967290624</v>
+        <v>0.36769552621700502</v>
       </c>
       <c r="AB53">
         <v>2</v>
       </c>
       <c r="AC53">
-        <v>-2.5888519995337749</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>0.29502137502894887</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>-3.0450153498164276</v>
+        <v>-4.4248091794189603</v>
       </c>
       <c r="AG53">
-        <v>0.24220774330514885</v>
+        <v>0.1257038377706223</v>
       </c>
       <c r="AH53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI53">
-        <v>-4.9723347322518059</v>
+        <v>-3.9164203700479505</v>
       </c>
       <c r="AJ53">
-        <v>0.64224406619288954</v>
+        <v>0.21552936573178999</v>
       </c>
       <c r="AK53">
         <v>2</v>
@@ -8412,42 +8440,42 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="AS53">
-        <v>6.2785375376398376</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E54">
-        <v>85.186631759000008</v>
+        <v>100.15</v>
       </c>
       <c r="F54">
-        <v>5.9586025096942681</v>
+        <v>9.0053687690547495</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>32</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="I54">
-        <v>6.4</v>
+        <v>0.62000000000000033</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -8462,10 +8490,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>-77</v>
+        <v>-91.1</v>
       </c>
       <c r="O54">
-        <v>4.8785724510815802</v>
+        <v>27.33</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -8489,46 +8517,46 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>8.3783125260505589</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="X54">
-        <v>6.3856714674023748E-2</v>
+        <v>0.1652271164185832</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>5.9708333333333323</v>
+        <v>7.1433333333333335</v>
       </c>
       <c r="AA54">
-        <v>0.30598542993635075</v>
+        <v>0.36828431046317112</v>
       </c>
       <c r="AB54">
         <v>3</v>
       </c>
       <c r="AC54">
-        <v>-2.1097746204853944</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>0.42195492409707891</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>-1.8415366630123795</v>
+        <v>-4.4678337478400705</v>
       </c>
       <c r="AG54">
-        <v>3.7003294481798843E-2</v>
+        <v>0.28281797910706313</v>
       </c>
       <c r="AH54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI54">
-        <v>-3.7707483866126688</v>
+        <v>-4.2554666846671543</v>
       </c>
       <c r="AJ54">
-        <v>0.31763768319090768</v>
+        <v>0.29719362983561631</v>
       </c>
       <c r="AK54">
         <v>3</v>
@@ -8543,19 +8571,19 @@
         <v>0</v>
       </c>
       <c r="AO54">
-        <v>60</v>
+        <v>77.464788732394354</v>
       </c>
       <c r="AP54">
-        <v>4.7291775609904514</v>
+        <v>6.1057456773350891</v>
       </c>
       <c r="AQ54">
         <v>1</v>
       </c>
       <c r="AR54">
-        <v>42.916666666666664</v>
+        <v>86.283333333333346</v>
       </c>
       <c r="AS54">
-        <v>2.4537386440559095</v>
+        <v>7.5306872196367154</v>
       </c>
       <c r="AT54">
         <v>3</v>
@@ -8566,31 +8594,31 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E55">
-        <v>93.6</v>
+        <v>73.524218355999992</v>
       </c>
       <c r="F55">
-        <v>6.6796159686982195</v>
+        <v>0.10717142872373359</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -8602,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>-82.3</v>
+        <v>-61.2</v>
       </c>
       <c r="O55">
-        <v>5.2143702951170656</v>
+        <v>3.8775147273531525</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -8629,49 +8657,49 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>10.270436050858564</v>
+        <v>7.5390552184404918</v>
       </c>
       <c r="X55">
-        <v>0.10951371931483565</v>
+        <v>0.19411422232382147</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>0.3111269837220812</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC55">
-        <v>-3.2424001857599851</v>
+        <v>-1.9124978394296193</v>
       </c>
       <c r="AD55">
-        <v>0.64848003715199709</v>
+        <v>0.16164821075426294</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF55">
-        <v>-3.5667759081346233</v>
+        <v>-1.1806733242754686</v>
       </c>
       <c r="AG55">
-        <v>0.56592027387140831</v>
+        <v>0.14119223273996104</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI55">
-        <v>-4.9091550554090064</v>
+        <v>-2.4696037487087663</v>
       </c>
       <c r="AJ55">
-        <v>0.60703954383878933</v>
+        <v>0.26889462132834718</v>
       </c>
       <c r="AK55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL55">
         <v>0</v>
@@ -8692,10 +8720,10 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>204.5</v>
+        <v>91</v>
       </c>
       <c r="AS55">
-        <v>9.4408891650540205</v>
+        <v>4.2010802641560678</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -8706,19 +8734,19 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E56">
-        <v>88.187381608999999</v>
+        <v>80.262301825000009</v>
       </c>
       <c r="F56">
-        <v>0.72495188087407936</v>
+        <v>3.164583107582521</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -8742,10 +8770,10 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>-87.5</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="O56">
-        <v>5.5438323307745234</v>
+        <v>4.441401672997646</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -8769,49 +8797,49 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>9.80286139538212</v>
+        <v>7.993297276476711</v>
       </c>
       <c r="X56">
-        <v>7.0888148300808597E-3</v>
+        <v>0.20580996420229952</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>6.6549999999999994</v>
+        <v>5.71</v>
       </c>
       <c r="AA56">
-        <v>0.14849242404917495</v>
+        <v>1.1420000000000001</v>
       </c>
       <c r="AB56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>-2.2302775143706985</v>
+        <v>-2.087498225774242</v>
       </c>
       <c r="AD56">
-        <v>0.44605550287413975</v>
+        <v>0.41749964515484844</v>
       </c>
       <c r="AE56">
         <v>1</v>
       </c>
       <c r="AF56">
-        <v>-3.2215368249492431</v>
+        <v>-1.4403667064642687</v>
       </c>
       <c r="AG56">
-        <v>8.1858281942174385E-2</v>
+        <v>0.12779782186875707</v>
       </c>
       <c r="AH56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI56">
-        <v>-4.6128134783762764</v>
+        <v>-2.98523196960676</v>
       </c>
       <c r="AJ56">
-        <v>0.23403260873049611</v>
+        <v>0.36913762809068135</v>
       </c>
       <c r="AK56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -8832,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>102.5</v>
+        <v>57.75</v>
       </c>
       <c r="AS56">
-        <v>4.7319860118241417</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
@@ -8846,162 +8874,162 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E57">
-        <v>104.05587005119456</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F57">
-        <v>0.65273974807507618</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>31.8</v>
+      </c>
+      <c r="I57">
+        <v>6.36</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>-76.099999999999994</v>
+      </c>
+      <c r="O57">
+        <v>4.8215501756793282</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>9.0261907024857795</v>
+      </c>
+      <c r="X57">
+        <v>0.23240471624002404</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>6.4024999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>1.2805</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>-2.5192965017072471</v>
+      </c>
+      <c r="AD57">
+        <v>0.50385930034144943</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>-2.4598699455590731</v>
+      </c>
+      <c r="AG57">
+        <v>0.15642979300815249</v>
+      </c>
+      <c r="AH57">
         <v>3</v>
       </c>
-      <c r="H57">
-        <v>37.809999999999995</v>
-      </c>
-      <c r="I57">
-        <v>7.5619999999999994</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>-104</v>
-      </c>
-      <c r="O57">
-        <v>6.5892407131491479</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>-23.8</v>
-      </c>
-      <c r="U57">
-        <v>4.7600000000000007</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-      <c r="W57">
-        <v>11.525637381635953</v>
-      </c>
-      <c r="X57">
-        <v>0.19984160559524264</v>
-      </c>
-      <c r="Y57">
-        <v>2</v>
-      </c>
-      <c r="Z57">
-        <v>8.1416737508306145</v>
-      </c>
-      <c r="AA57">
-        <v>0.25421187957856911</v>
-      </c>
-      <c r="AB57">
-        <v>8</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>-4.9397366133846008</v>
-      </c>
-      <c r="AG57">
-        <v>0.45466857646634756</v>
-      </c>
-      <c r="AH57">
-        <v>4</v>
-      </c>
       <c r="AI57">
-        <v>-5.8669835519668307</v>
+        <v>-4.4217108558101943</v>
       </c>
       <c r="AJ57">
-        <v>0.22757118902063592</v>
+        <v>0.54676483235961115</v>
       </c>
       <c r="AK57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL57">
-        <v>1.533336835519298</v>
+        <v>0</v>
       </c>
       <c r="AM57">
-        <v>0.68025804777806742</v>
+        <v>0</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>55.188213787105745</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>9.8727770120457699</v>
+        <v>0</v>
       </c>
       <c r="AQ57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR57">
-        <v>308.39285714285717</v>
+        <v>76</v>
       </c>
       <c r="AS57">
-        <v>5.139425111448797</v>
+        <v>3.5085945063281443</v>
       </c>
       <c r="AT57">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E58">
-        <v>77.251485714285693</v>
+        <v>77.521050303999999</v>
       </c>
       <c r="F58">
-        <v>0.96533834384387507</v>
+        <v>3.0417753598014903</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -9022,10 +9050,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>-54.963853999999998</v>
+        <v>-63.8</v>
       </c>
       <c r="O58">
-        <v>3.4824044666190925</v>
+        <v>4.042245745181881</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -9049,49 +9077,49 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>7</v>
+        <v>7.6828040702811879</v>
       </c>
       <c r="X58">
-        <v>0.18023472661974055</v>
+        <v>2.1784930946130668E-2</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z58">
-        <v>1.6110213059370522</v>
+        <v>5.2862499999999999</v>
       </c>
       <c r="AA58">
-        <v>0.10675059659978832</v>
+        <v>1.9445436482629957E-2</v>
       </c>
       <c r="AB58">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AC58">
-        <v>-4.7471469690201067</v>
+        <v>0</v>
       </c>
       <c r="AD58">
-        <v>0.94942939380402136</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>-0.5737975003434046</v>
+        <v>-1.1641242474646873</v>
       </c>
       <c r="AG58">
-        <v>9.5464368197886035E-2</v>
+        <v>0.17316928979703319</v>
       </c>
       <c r="AH58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI58">
-        <v>1.3026136962115185</v>
+        <v>-3.2819205999699497</v>
       </c>
       <c r="AJ58">
-        <v>7.889766480857377E-2</v>
+        <v>0.44450077171695895</v>
       </c>
       <c r="AK58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL58">
         <v>0</v>
@@ -9103,45 +9131,45 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>4.8710528878201647</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58">
-        <v>5.4119999999999999</v>
+        <v>29.083333333333332</v>
       </c>
       <c r="AS58">
-        <v>0.23177575369309009</v>
+        <v>0.38188130791298669</v>
       </c>
       <c r="AT58">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E59">
-        <v>83.510311011427788</v>
+        <v>85.341688061999989</v>
       </c>
       <c r="F59">
-        <v>2.0167132760553788</v>
+        <v>1.7560120975171565</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -9162,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>-59.087598</v>
+        <v>-83</v>
       </c>
       <c r="O59">
-        <v>3.7436769844595208</v>
+        <v>5.2587209537632624</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -9189,49 +9217,49 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>7.48</v>
+        <v>9.5354454649199933</v>
       </c>
       <c r="X59">
-        <v>0.19259367930223703</v>
+        <v>6.0454967129327825E-2</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>2.309034364660989</v>
+        <v>6.665</v>
       </c>
       <c r="AA59">
-        <v>0.41659773461009664</v>
+        <v>0.16263455967290624</v>
       </c>
       <c r="AB59">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>-4.7375489102695703</v>
+        <v>-2.5888519995337749</v>
       </c>
       <c r="AD59">
-        <v>0.94750978205391412</v>
+        <v>0.29502137502894887</v>
       </c>
       <c r="AE59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF59">
-        <v>-0.86296934379017121</v>
+        <v>-3.0450153498164276</v>
       </c>
       <c r="AG59">
-        <v>0.22717615065451793</v>
+        <v>0.24220774330514885</v>
       </c>
       <c r="AH59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AI59">
-        <v>0.6479393964825203</v>
+        <v>-4.9723347322518059</v>
       </c>
       <c r="AJ59">
-        <v>4.9413997541154983E-2</v>
+        <v>0.64224406619288954</v>
       </c>
       <c r="AK59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL59">
         <v>0</v>
@@ -9243,54 +9271,54 @@
         <v>0</v>
       </c>
       <c r="AO59">
-        <v>66.64</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>5.2525398777400616</v>
+        <v>0</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59">
-        <v>-50.183333333333337</v>
+        <v>136</v>
       </c>
       <c r="AS59">
-        <v>10.907871775312827</v>
+        <v>6.2785375376398376</v>
       </c>
       <c r="AT59">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="E60">
-        <v>88.7</v>
+        <v>85.186631759000008</v>
       </c>
       <c r="F60">
-        <v>6.3299352182001298</v>
+        <v>5.9586025096942681</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -9302,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>4.8785724510815802</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -9329,49 +9357,49 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>8.3783125260505589</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>6.3856714674023748E-2</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>3.8510326049913961</v>
+        <v>5.9708333333333323</v>
       </c>
       <c r="AA60">
-        <v>0.48041586212717508</v>
+        <v>0.30598542993635075</v>
       </c>
       <c r="AB60">
         <v>3</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>-2.1097746204853944</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>0.42195492409707891</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60">
-        <v>-1.7569619513137056</v>
+        <v>-1.8415366630123795</v>
       </c>
       <c r="AG60">
-        <v>0.27876727169807036</v>
+        <v>3.7003294481798843E-2</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI60">
-        <v>-0.37927796599702324</v>
+        <v>-3.7707483866126688</v>
       </c>
       <c r="AJ60">
-        <v>4.689946047095362E-2</v>
+        <v>0.31763768319090768</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL60">
         <v>0</v>
@@ -9383,54 +9411,54 @@
         <v>0</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>4.7291775609904514</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>-31</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="AS60">
-        <v>1.4311372328443748</v>
+        <v>2.4537386440559095</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="E61">
-        <v>77.779285878211255</v>
+        <v>93.6</v>
       </c>
       <c r="F61">
-        <v>11.289652223038836</v>
+        <v>6.6796159686982195</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>3.1389999999999998</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0.62780000000000002</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -9442,13 +9470,13 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>-82.3</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>5.2143702951170656</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -9469,49 +9497,49 @@
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>10.270436050858564</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>0.10951371931483565</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z61">
-        <v>4.2356685525576738</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.14754694795495324</v>
+        <v>0</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>-3.2424001857599851</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>0.64848003715199709</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>-2</v>
+        <v>-3.5667759081346233</v>
       </c>
       <c r="AG61">
-        <v>0.31732875204227629</v>
+        <v>0.56592027387140831</v>
       </c>
       <c r="AH61">
         <v>1</v>
       </c>
       <c r="AI61">
-        <v>-1.3958411066867862</v>
+        <v>-4.9091550554090064</v>
       </c>
       <c r="AJ61">
-        <v>0.20844345466840553</v>
+        <v>0.60703954383878933</v>
       </c>
       <c r="AK61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL61">
         <v>0</v>
@@ -9532,45 +9560,45 @@
         <v>0</v>
       </c>
       <c r="AR61">
-        <v>-54.6</v>
+        <v>204.5</v>
       </c>
       <c r="AS61">
-        <v>11.3929802949009</v>
+        <v>9.4408891650540205</v>
       </c>
       <c r="AT61">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E62">
-        <v>94.398029513874349</v>
+        <v>88.187381608999999</v>
       </c>
       <c r="F62">
-        <v>2.7191972778775324</v>
+        <v>0.72495188087407936</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>-1.081</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0.2162</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -9582,10 +9610,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>-69.222363999999999</v>
+        <v>-87.5</v>
       </c>
       <c r="O62">
-        <v>4.3857963377810565</v>
+        <v>5.5438323307745234</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -9609,49 +9637,49 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>8.66</v>
+        <v>9.80286139538212</v>
       </c>
       <c r="X62">
-        <v>0.22297610464670758</v>
+        <v>7.0888148300808597E-3</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z62">
-        <v>4.4422553262077491</v>
+        <v>6.6549999999999994</v>
       </c>
       <c r="AA62">
-        <v>0.28331014372467622</v>
+        <v>0.14849242404917495</v>
       </c>
       <c r="AB62">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AC62">
-        <v>-4.1308496465690387</v>
+        <v>-2.2302775143706985</v>
       </c>
       <c r="AD62">
-        <v>0.82616992931380784</v>
+        <v>0.44605550287413975</v>
       </c>
       <c r="AE62">
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>-2.3350542131060088</v>
+        <v>-3.2215368249492431</v>
       </c>
       <c r="AG62">
-        <v>0.13346437472296552</v>
+        <v>8.1858281942174385E-2</v>
       </c>
       <c r="AH62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AI62">
-        <v>-1.3998152287306809</v>
+        <v>-4.6128134783762764</v>
       </c>
       <c r="AJ62">
-        <v>6.8688215356957738E-2</v>
+        <v>0.23403260873049611</v>
       </c>
       <c r="AK62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AL62">
         <v>0</v>
@@ -9672,45 +9700,45 @@
         <v>0</v>
       </c>
       <c r="AR62">
-        <v>-35</v>
+        <v>102.5</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>4.7319860118241417</v>
       </c>
       <c r="AT62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="E63">
-        <v>96.432000000000002</v>
+        <v>104.05587005119456</v>
       </c>
       <c r="F63">
-        <v>12.116981802412674</v>
+        <v>0.65273974807507618</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>7.5619999999999994</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -9722,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>-76.272636000000006</v>
+        <v>-104</v>
       </c>
       <c r="O63">
-        <v>4.832488061830821</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -9740,31 +9768,31 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>-23.8</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
-        <v>9.66</v>
+        <v>11.525637381635953</v>
       </c>
       <c r="X63">
-        <v>0.24872392273524194</v>
+        <v>0.19984160559524264</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z63">
-        <v>4.5386669822446644</v>
+        <v>8.1416737508306145</v>
       </c>
       <c r="AA63">
-        <v>0.4185329646809503</v>
+        <v>0.25421187957856911</v>
       </c>
       <c r="AB63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -9776,49 +9804,49 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>-3.4028429570900025</v>
+        <v>-4.9397366133846008</v>
       </c>
       <c r="AG63">
-        <v>0.56113384528000032</v>
+        <v>0.45466857646634756</v>
       </c>
       <c r="AH63">
+        <v>4</v>
+      </c>
+      <c r="AI63">
+        <v>-5.8669835519668307</v>
+      </c>
+      <c r="AJ63">
+        <v>0.22757118902063592</v>
+      </c>
+      <c r="AK63">
         <v>5</v>
       </c>
-      <c r="AI63">
-        <v>-2.196787626474034</v>
-      </c>
-      <c r="AJ63">
-        <v>0.29807311025252042</v>
-      </c>
-      <c r="AK63">
-        <v>4</v>
-      </c>
       <c r="AL63">
-        <v>0</v>
+        <v>1.533336835519298</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>0.68025804777806742</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>55.188213787105745</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>9.8727770120457699</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR63">
-        <v>-35</v>
+        <v>308.39285714285717</v>
       </c>
       <c r="AS63">
-        <v>0</v>
+        <v>5.139425111448797</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
@@ -9826,22 +9854,22 @@
         <v>182</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>77.251485714285693</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.96533834384387507</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -9862,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>-54.963853999999998</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>3.4824044666190925</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -9889,49 +9917,49 @@
         <v>0</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>0.18023472661974055</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64">
-        <v>10.199999999999999</v>
+        <v>1.6110213059370522</v>
       </c>
       <c r="AA64">
-        <v>0.69146320276503692</v>
+        <v>0.10675059659978832</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>-4.7471469690201067</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>0.94942939380402136</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>-0.5737975003434046</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>9.5464368197886035E-2</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>1.3026136962115185</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>7.889766480857377E-2</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL64">
         <v>0</v>
@@ -9943,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>4.8710528878201647</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>-27</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="AS64">
-        <v>1.2464743640902618</v>
+        <v>0.23177575369309009</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9966,22 +9994,22 @@
         <v>182</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E65">
-        <v>112.20803244366759</v>
+        <v>83.510311011427788</v>
       </c>
       <c r="F65">
-        <v>4.4625575442630749</v>
+        <v>2.0167132760553788</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -10002,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>-85.235128000000003</v>
+        <v>-59.087598</v>
       </c>
       <c r="O65">
-        <v>5.4003343808469122</v>
+        <v>3.7436769844595208</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -10029,49 +10057,49 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>10.48</v>
+        <v>7.48</v>
       </c>
       <c r="X65">
-        <v>0.26983713356784012</v>
+        <v>0.19259367930223703</v>
       </c>
       <c r="Y65">
         <v>1</v>
       </c>
       <c r="Z65">
-        <v>7.5961428571428575</v>
+        <v>2.309034364660989</v>
       </c>
       <c r="AA65">
-        <v>0.35617946252389365</v>
+        <v>0.41659773461009664</v>
       </c>
       <c r="AB65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>-4.7375489102695703</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>0.94750978205391412</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65">
-        <v>-4.6359639287313668</v>
+        <v>-0.86296934379017121</v>
       </c>
       <c r="AG65">
-        <v>0.40136383442810358</v>
+        <v>0.22717615065451793</v>
       </c>
       <c r="AH65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI65">
-        <v>-3.4780745027655433</v>
+        <v>0.6479393964825203</v>
       </c>
       <c r="AJ65">
-        <v>0.53164878715036823</v>
+        <v>4.9413997541154983E-2</v>
       </c>
       <c r="AK65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL65">
         <v>0</v>
@@ -10083,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>66.64</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>5.2525398777400616</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>-53</v>
+        <v>-50.183333333333337</v>
       </c>
       <c r="AS65">
-        <v>2.7386127875258306</v>
+        <v>10.907871775312827</v>
       </c>
       <c r="AT65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
@@ -10106,22 +10134,22 @@
         <v>182</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E66">
-        <v>117.3274</v>
+        <v>88.7</v>
       </c>
       <c r="F66">
-        <v>8.7652894441655516</v>
+        <v>6.3299352182001298</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -10142,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>-92.642902000000007</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>5.8696767465642949</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -10169,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>11.18</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>0.28786060622981419</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>8.125</v>
+        <v>3.8510326049913961</v>
       </c>
       <c r="AA66">
-        <v>5.5075705472860809E-2</v>
+        <v>0.48041586212717508</v>
       </c>
       <c r="AB66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -10196,22 +10224,22 @@
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>-5.2448925746858528</v>
+        <v>-1.7569619513137056</v>
       </c>
       <c r="AG66">
-        <v>0.21714113940771862</v>
+        <v>0.27876727169807036</v>
       </c>
       <c r="AH66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI66">
-        <v>-5.5036251812831916</v>
+        <v>-0.37927796599702324</v>
       </c>
       <c r="AJ66">
-        <v>0.83723737685498756</v>
+        <v>4.689946047095362E-2</v>
       </c>
       <c r="AK66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL66">
         <v>0</v>
@@ -10232,13 +10260,13 @@
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>-25</v>
+        <v>-31</v>
       </c>
       <c r="AS66">
-        <v>0</v>
+        <v>1.4311372328443748</v>
       </c>
       <c r="AT66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -10246,31 +10274,31 @@
         <v>182</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>77.779285878211255</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>11.289652223038836</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -10318,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>7.4342989408727043</v>
+        <v>4.2356685525576738</v>
       </c>
       <c r="AA67">
-        <v>1.2838945315165156</v>
+        <v>0.14754694795495324</v>
       </c>
       <c r="AB67">
         <v>1</v>
@@ -10336,22 +10364,22 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>-3.8839740178332058</v>
+        <v>-2</v>
       </c>
       <c r="AG67">
-        <v>0.14303515418375298</v>
+        <v>0.31732875204227629</v>
       </c>
       <c r="AH67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI67">
-        <v>-5.8270387665542565</v>
+        <v>-1.3958411066867862</v>
       </c>
       <c r="AJ67">
-        <v>7.1528670243570947E-3</v>
+        <v>0.20844345466840553</v>
       </c>
       <c r="AK67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL67">
         <v>0</v>
@@ -10372,45 +10400,45 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>-45.5</v>
+        <v>-54.6</v>
       </c>
       <c r="AS67">
-        <v>3.5355339059327378</v>
+        <v>11.3929802949009</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E68">
-        <v>77.099999999999994</v>
+        <v>94.398029513874349</v>
       </c>
       <c r="F68">
-        <v>5.5021195639597513</v>
+        <v>2.7191972778775324</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>-1.081</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.2162</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -10422,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>-65.7</v>
+        <v>-69.222363999999999</v>
       </c>
       <c r="O68">
-        <v>4.1626261043644135</v>
+        <v>4.3857963377810565</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -10449,49 +10477,49 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>7.4756656115367477</v>
+        <v>8.66</v>
       </c>
       <c r="X68">
-        <v>0.19248207825656016</v>
+        <v>0.22297610464670758</v>
       </c>
       <c r="Y68">
         <v>1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>4.4422553262077491</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>0.28331014372467622</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>-4.1308496465690387</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>0.82616992931380784</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF68">
-        <v>-0.83534495289423183</v>
+        <v>-2.3350542131060088</v>
       </c>
       <c r="AG68">
-        <v>0.13253948571337032</v>
+        <v>0.13346437472296552</v>
       </c>
       <c r="AH68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI68">
-        <v>0</v>
+        <v>-1.3998152287306809</v>
       </c>
       <c r="AJ68">
-        <v>0</v>
+        <v>6.8688215356957738E-2</v>
       </c>
       <c r="AK68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL68">
         <v>0</v>
@@ -10512,36 +10540,36 @@
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>51.5</v>
+        <v>-35</v>
       </c>
       <c r="AS68">
-        <v>2.1213203435596424</v>
+        <v>0</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E69">
-        <v>79.976666666666674</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="F69">
-        <v>7.7949748770174621</v>
+        <v>12.116981802412674</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -10562,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>-75.3</v>
+        <v>-76.272636000000006</v>
       </c>
       <c r="O69">
-        <v>4.7708637086551038</v>
+        <v>4.832488061830821</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -10589,22 +10617,22 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>9.062289783061221</v>
+        <v>9.66</v>
       </c>
       <c r="X69">
-        <v>0.23333418879984386</v>
+        <v>0.24872392273524194</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>3.4536576318955827</v>
+        <v>4.5386669822446644</v>
       </c>
       <c r="AA69">
-        <v>0.12659127947609147</v>
+        <v>0.4185329646809503</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -10616,22 +10644,22 @@
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>-2.4901757792294523</v>
+        <v>-3.4028429570900025</v>
       </c>
       <c r="AG69">
-        <v>0.15804862177910686</v>
+        <v>0.56113384528000032</v>
       </c>
       <c r="AH69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI69">
-        <v>-0.99160050980834902</v>
+        <v>-2.196787626474034</v>
       </c>
       <c r="AJ69">
-        <v>0.18611663456422731</v>
+        <v>0.29807311025252042</v>
       </c>
       <c r="AK69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL69">
         <v>0</v>
@@ -10643,45 +10671,45 @@
         <v>0</v>
       </c>
       <c r="AO69">
-        <v>64.656964656964661</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>5.096237773624499</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>63.741666666666667</v>
+        <v>-35</v>
       </c>
       <c r="AS69">
-        <v>0.94995613933837286</v>
+        <v>0</v>
       </c>
       <c r="AT69">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70">
         <v>67</v>
       </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="E70">
-        <v>65.7</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>4.688576593413174</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -10702,13 +10730,13 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>-64.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>4.11193963734019</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -10729,19 +10757,19 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>8.5342489113816207</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>0.21973828849252638</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>5.1021482939458087</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA70">
-        <v>1.5306444881837427</v>
+        <v>0.69146320276503692</v>
       </c>
       <c r="AB70">
         <v>1</v>
@@ -10756,22 +10784,22 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>-2.1437560717924429</v>
+        <v>0</v>
       </c>
       <c r="AG70">
-        <v>0.57534852774613077</v>
+        <v>0</v>
       </c>
       <c r="AH70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI70">
-        <v>-1.9385377595649462</v>
+        <v>0</v>
       </c>
       <c r="AJ70">
-        <v>0.23970908720513637</v>
+        <v>0</v>
       </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>0</v>
@@ -10792,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="AR70">
-        <v>70.400000000000006</v>
+        <v>-27</v>
       </c>
       <c r="AS70">
-        <v>3.2500664900723866</v>
+        <v>1.2464743640902618</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -10803,25 +10831,25 @@
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="E71">
-        <v>95.3</v>
+        <v>112.20803244366759</v>
       </c>
       <c r="F71">
-        <v>6.8009337800955159</v>
+        <v>4.4625575442630749</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -10842,10 +10870,10 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>-82.9</v>
+        <v>-85.235128000000003</v>
       </c>
       <c r="O71">
-        <v>5.2523851453852348</v>
+        <v>5.4003343808469122</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -10869,22 +10897,22 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>8.4929739722986248</v>
+        <v>10.48</v>
       </c>
       <c r="X71">
-        <v>0.21867554886940208</v>
+        <v>0.26983713356784012</v>
       </c>
       <c r="Y71">
         <v>1</v>
       </c>
       <c r="Z71">
-        <v>6.4226390597038554</v>
+        <v>7.5961428571428575</v>
       </c>
       <c r="AA71">
-        <v>1.2845278119407713</v>
+        <v>0.35617946252389365</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -10896,22 +10924,22 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-1.8907497643218214</v>
+        <v>-4.6359639287313668</v>
       </c>
       <c r="AG71">
-        <v>9.4527481783361011E-2</v>
+        <v>0.40136383442810358</v>
       </c>
       <c r="AH71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI71">
-        <v>-2.8168194218021276</v>
+        <v>-3.4780745027655433</v>
       </c>
       <c r="AJ71">
-        <v>0.34831264394531203</v>
+        <v>0.53164878715036823</v>
       </c>
       <c r="AK71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL71">
         <v>0</v>
@@ -10932,36 +10960,36 @@
         <v>0</v>
       </c>
       <c r="AR71">
-        <v>-20</v>
+        <v>-53</v>
       </c>
       <c r="AS71">
-        <v>6</v>
+        <v>2.7386127875258306</v>
       </c>
       <c r="AT71">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E72">
-        <v>94.890864162898467</v>
+        <v>117.3274</v>
       </c>
       <c r="F72">
-        <v>6.7717364481417759</v>
+        <v>8.7652894441655516</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -10982,13 +11010,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>-92.642902000000007</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>5.8696767465642949</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -11009,22 +11037,22 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>0.28786060622981419</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>6.089186783305113</v>
+        <v>8.125</v>
       </c>
       <c r="AA72">
-        <v>1.2178373566610228</v>
+        <v>5.5075705472860809E-2</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -11036,22 +11064,22 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>-9.755026966610103</v>
+        <v>-5.2448925746858528</v>
       </c>
       <c r="AG72">
-        <v>1.5477752667265681</v>
+        <v>0.21714113940771862</v>
       </c>
       <c r="AH72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI72">
-        <v>-4.1239577006727393</v>
+        <v>-5.5036251812831916</v>
       </c>
       <c r="AJ72">
-        <v>0.22861214103520214</v>
+        <v>0.83723737685498756</v>
       </c>
       <c r="AK72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -11072,36 +11100,36 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>-9.9</v>
+        <v>-25</v>
       </c>
       <c r="AS72">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="E73">
-        <v>95.314065814702502</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>6.8019375647162388</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -11158,10 +11186,10 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>6.4362128672865646</v>
+        <v>7.4342989408727043</v>
       </c>
       <c r="AA73">
-        <v>1.9308638601859693</v>
+        <v>1.2838945315165156</v>
       </c>
       <c r="AB73">
         <v>1</v>
@@ -11176,22 +11204,22 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>-1.2839966563652008</v>
+        <v>-3.8839740178332058</v>
       </c>
       <c r="AG73">
-        <v>0.20372452829541232</v>
+        <v>0.14303515418375298</v>
       </c>
       <c r="AH73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI73">
-        <v>-2.6450973005369249</v>
+        <v>-5.8270387665542565</v>
       </c>
       <c r="AJ73">
-        <v>0.32707841585854547</v>
+        <v>7.1528670243570947E-3</v>
       </c>
       <c r="AK73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL73">
         <v>0</v>
@@ -11212,13 +11240,13 @@
         <v>0</v>
       </c>
       <c r="AR73">
-        <v>-20</v>
+        <v>-45.5</v>
       </c>
       <c r="AS73">
-        <v>6</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
@@ -11226,22 +11254,22 @@
         <v>67</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -11262,13 +11290,13 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>-65.7</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>4.1626261043644135</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -11289,13 +11317,13 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>7.4756656115367477</v>
       </c>
       <c r="X74">
-        <v>0</v>
+        <v>0.19248207825656016</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -11316,31 +11344,31 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>-4.8499999999999996</v>
+        <v>-0.83534495289423183</v>
       </c>
       <c r="AG74">
-        <v>0.76952222370251988</v>
+        <v>0.13253948571337032</v>
       </c>
       <c r="AH74">
         <v>1</v>
       </c>
       <c r="AI74">
-        <v>-4.0495573269641527</v>
+        <v>0</v>
       </c>
       <c r="AJ74">
-        <v>0.50074634122644102</v>
+        <v>0</v>
       </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
-        <v>2.0133316945093855</v>
+        <v>0</v>
       </c>
       <c r="AM74">
-        <v>0.40266633890187714</v>
+        <v>0</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -11352,13 +11380,13 @@
         <v>0</v>
       </c>
       <c r="AR74">
-        <v>39.783333333333331</v>
+        <v>51.5</v>
       </c>
       <c r="AS74">
-        <v>68.339020088575069</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
@@ -11366,138 +11394,978 @@
         <v>67</v>
       </c>
       <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75">
+        <v>79.976666666666674</v>
+      </c>
+      <c r="F75">
+        <v>7.7949748770174621</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>-75.3</v>
+      </c>
+      <c r="O75">
+        <v>4.7708637086551038</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>9.062289783061221</v>
+      </c>
+      <c r="X75">
+        <v>0.23333418879984386</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>3.4536576318955827</v>
+      </c>
+      <c r="AA75">
+        <v>0.12659127947609147</v>
+      </c>
+      <c r="AB75">
+        <v>3</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>-2.4901757792294523</v>
+      </c>
+      <c r="AG75">
+        <v>0.15804862177910686</v>
+      </c>
+      <c r="AH75">
+        <v>3</v>
+      </c>
+      <c r="AI75">
+        <v>-0.99160050980834902</v>
+      </c>
+      <c r="AJ75">
+        <v>0.18611663456422731</v>
+      </c>
+      <c r="AK75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>64.656964656964661</v>
+      </c>
+      <c r="AP75">
+        <v>5.096237773624499</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>63.741666666666667</v>
+      </c>
+      <c r="AS75">
+        <v>0.94995613933837286</v>
+      </c>
+      <c r="AT75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76">
+        <v>65.7</v>
+      </c>
+      <c r="F76">
+        <v>4.688576593413174</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>-64.900000000000006</v>
+      </c>
+      <c r="O76">
+        <v>4.11193963734019</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>8.5342489113816207</v>
+      </c>
+      <c r="X76">
+        <v>0.21973828849252638</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>5.1021482939458087</v>
+      </c>
+      <c r="AA76">
+        <v>1.5306444881837427</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>-2.1437560717924429</v>
+      </c>
+      <c r="AG76">
+        <v>0.57534852774613077</v>
+      </c>
+      <c r="AH76">
+        <v>2</v>
+      </c>
+      <c r="AI76">
+        <v>-1.9385377595649462</v>
+      </c>
+      <c r="AJ76">
+        <v>0.23970908720513637</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AS76">
+        <v>3.2500664900723866</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77">
+        <v>95.3</v>
+      </c>
+      <c r="F77">
+        <v>6.8009337800955159</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>-82.9</v>
+      </c>
+      <c r="O77">
+        <v>5.2523851453852348</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>8.4929739722986248</v>
+      </c>
+      <c r="X77">
+        <v>0.21867554886940208</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>6.4226390597038554</v>
+      </c>
+      <c r="AA77">
+        <v>1.2845278119407713</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>-1.8907497643218214</v>
+      </c>
+      <c r="AG77">
+        <v>9.4527481783361011E-2</v>
+      </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
+      <c r="AI77">
+        <v>-2.8168194218021276</v>
+      </c>
+      <c r="AJ77">
+        <v>0.34831264394531203</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>-20</v>
+      </c>
+      <c r="AS77">
+        <v>6</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
         <v>75</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78">
+        <v>94.890864162898467</v>
+      </c>
+      <c r="F78">
+        <v>6.7717364481417759</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>6.089186783305113</v>
+      </c>
+      <c r="AA78">
+        <v>1.2178373566610228</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>-9.755026966610103</v>
+      </c>
+      <c r="AG78">
+        <v>1.5477752667265681</v>
+      </c>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>-4.1239577006727393</v>
+      </c>
+      <c r="AJ78">
+        <v>0.22861214103520214</v>
+      </c>
+      <c r="AK78">
+        <v>2</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>-9.9</v>
+      </c>
+      <c r="AS78">
+        <v>2.97</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79">
+        <v>95.314065814702502</v>
+      </c>
+      <c r="F79">
+        <v>6.8019375647162388</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>6.4362128672865646</v>
+      </c>
+      <c r="AA79">
+        <v>1.9308638601859693</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>-1.2839966563652008</v>
+      </c>
+      <c r="AG79">
+        <v>0.20372452829541232</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>-2.6450973005369249</v>
+      </c>
+      <c r="AJ79">
+        <v>0.32707841585854547</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>-20</v>
+      </c>
+      <c r="AS79">
+        <v>6</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="AG80">
+        <v>0.76952222370251988</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>-4.0495573269641527</v>
+      </c>
+      <c r="AJ80">
+        <v>0.50074634122644102</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>2.0133316945093855</v>
+      </c>
+      <c r="AM80">
+        <v>0.40266633890187714</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>39.783333333333331</v>
+      </c>
+      <c r="AS80">
+        <v>68.339020088575069</v>
+      </c>
+      <c r="AT80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
         <v>167</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>110.96000000000001</v>
       </c>
-      <c r="F75">
+      <c r="F81">
         <v>9.9560634791065876</v>
       </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>-101.7366255</v>
       </c>
-      <c r="O75">
+      <c r="O81">
         <v>20.17145766310653</v>
       </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
         <v>10.330951337636964</v>
       </c>
-      <c r="X75">
+      <c r="X81">
         <v>1.3307061432192995</v>
       </c>
-      <c r="Y75">
-        <v>2</v>
-      </c>
-      <c r="Z75">
+      <c r="Y81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
         <v>6.0022541387692874</v>
       </c>
-      <c r="AA75">
+      <c r="AA81">
         <v>1.2004508277538575</v>
       </c>
-      <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
         <v>-4.0845351391156468</v>
       </c>
-      <c r="AG75">
+      <c r="AG81">
         <v>0.98176864457868018</v>
       </c>
-      <c r="AH75">
-        <v>2</v>
-      </c>
-      <c r="AI75">
+      <c r="AH81">
+        <v>2</v>
+      </c>
+      <c r="AI81">
         <v>-3.3038705028971718</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ81">
         <v>0.76711407451090985</v>
       </c>
-      <c r="AK75">
-        <v>2</v>
-      </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <v>0</v>
-      </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0</v>
-      </c>
-      <c r="AQ75">
-        <v>0</v>
-      </c>
-      <c r="AR75">
+      <c r="AK81">
+        <v>2</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
         <v>-68.3</v>
       </c>
-      <c r="AS75">
+      <c r="AS81">
         <v>3.1531184839764772</v>
       </c>
-      <c r="AT75">
+      <c r="AT81">
         <v>1</v>
       </c>
     </row>

--- a/LDV_Data.xlsx
+++ b/LDV_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\FAVs_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bayesian_FAV_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B20E1-E312-4A1E-9D0F-5E1ABCD1ED68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01296EBC-ABF9-43B5-AF3E-AF7EE6FAF9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
   <si>
     <t>Class</t>
   </si>
@@ -642,6 +634,57 @@
   </si>
   <si>
     <t>28553-12-0</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>78-40-0</t>
+  </si>
+  <si>
+    <t>TPrP</t>
+  </si>
+  <si>
+    <t>513-08-6</t>
+  </si>
+  <si>
+    <t>TiBP</t>
+  </si>
+  <si>
+    <t>126-71-6</t>
+  </si>
+  <si>
+    <t>TnBP</t>
+  </si>
+  <si>
+    <t>126-73-8</t>
+  </si>
+  <si>
+    <t>TPPO</t>
+  </si>
+  <si>
+    <t>791-28-6</t>
+  </si>
+  <si>
+    <t>B4tBPPP</t>
+  </si>
+  <si>
+    <t>115-87-7</t>
+  </si>
+  <si>
+    <t>phenanthrene</t>
+  </si>
+  <si>
+    <t>85-01-8</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>PFOA</t>
+  </si>
+  <si>
+    <t>335-67-1</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6089F3A3-B933-43E9-8E92-242433A56B01}">
-  <dimension ref="A1:AT75"/>
+  <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I53" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,19 +4972,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="E29">
-        <v>81.233333333333334</v>
+        <v>56.424999999999997</v>
       </c>
       <c r="F29">
-        <v>2.9091808698211468</v>
+        <v>4.0266808871132165</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4962,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-79.8</v>
+        <v>-65</v>
       </c>
       <c r="O29">
-        <v>14.117011015083925</v>
+        <v>4.1182754457182176</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4989,46 +5032,46 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>7.914452287052451</v>
+        <v>5.21</v>
       </c>
       <c r="X29">
-        <v>6.3438854805062408E-2</v>
+        <v>0.13414613224126404</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1.6487788978175042</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.19072172315272956</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AB29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>-5.8322257206709365</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1.7496677162012808</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>-1.3849533306583126</v>
+        <v>1.6546478151372854</v>
       </c>
       <c r="AG29">
-        <v>0.17815080358449792</v>
+        <v>9.1425816944937455E-2</v>
       </c>
       <c r="AH29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI29">
-        <v>1.4162808651238727</v>
+        <v>3.4354676142742648</v>
       </c>
       <c r="AJ29">
-        <v>2.992467579434344E-2</v>
+        <v>1.0306402842822795</v>
       </c>
       <c r="AK29">
         <v>3</v>
@@ -5052,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>-45</v>
+        <v>-56.2</v>
       </c>
       <c r="AS29">
-        <v>14.142135623730951</v>
+        <v>0.23094010767584949</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -5069,19 +5112,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="E30">
-        <v>90.566666666666663</v>
+        <v>75.08</v>
       </c>
       <c r="F30">
-        <v>9.2251467919666919</v>
+        <v>5.3579654586523757</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -5102,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>-90.3</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>15.703821191035079</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -5129,49 +5172,49 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>8.5999801895500738</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.93553903324940713</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>2.6349999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="AA30">
-        <v>6.3639610306789496E-2</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AB30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>-4.5560193087319867</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.366805792619596</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>-2.0793529564966393</v>
+        <v>3.9810554148350386E-2</v>
       </c>
       <c r="AG30">
-        <v>0.83649137759001246</v>
+        <v>6.3165167330037466E-3</v>
       </c>
       <c r="AH30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0.56851833009543651</v>
+        <v>-1.5406075122407692</v>
       </c>
       <c r="AJ30">
-        <v>8.5459697155219894E-2</v>
+        <v>0.46218225367223076</v>
       </c>
       <c r="AK30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -5192,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>-45.5</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>7.7781745930520225</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -5209,16 +5252,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>73.579280213433478</v>
       </c>
       <c r="F31">
-        <v>5.0239426748321856</v>
+        <v>9.6108129578966537</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -5242,13 +5285,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-93.066666666666663</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>5.7500724633115148</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -5269,22 +5312,22 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>10.196734960730311</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>0.35717875532112214</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>3.7354013998198079</v>
+        <v>3.72</v>
       </c>
       <c r="AA31">
-        <v>5.478325049151412E-2</v>
+        <v>0.2521806974790135</v>
       </c>
       <c r="AB31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -5296,22 +5339,22 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>-3.8968901507926397</v>
+        <v>-0.48126167744393333</v>
       </c>
       <c r="AG31">
-        <v>0.8017700738440946</v>
+        <v>0.11783463401677403</v>
       </c>
       <c r="AH31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI31">
-        <v>-1.5157161364205862</v>
+        <v>-7.0988371796333744E-3</v>
       </c>
       <c r="AJ31">
-        <v>0.23853678415206614</v>
+        <v>4.6885273026846148E-3</v>
       </c>
       <c r="AK31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -5332,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>27</v>
+        <v>-60</v>
       </c>
       <c r="AS31">
-        <v>8.1</v>
+        <v>2.7699430313116928</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -5349,28 +5392,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="E32">
-        <v>94.320000000000007</v>
+        <v>77.756666666666661</v>
       </c>
       <c r="F32">
-        <v>8.6586373061816122</v>
+        <v>3.3164187512033716</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-21.437204504851408</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4.2874409009702816</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5382,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>-95.100000000000009</v>
+        <v>-80.2</v>
       </c>
       <c r="O32">
-        <v>5.8077534382926403</v>
+        <v>14.849242404917437</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -5409,22 +5452,22 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>10.202624059176518</v>
+        <v>7.4950000000000001</v>
       </c>
       <c r="X32">
-        <v>0.16599464740887165</v>
+        <v>7.7781745930519827E-2</v>
       </c>
       <c r="Y32">
         <v>2</v>
       </c>
       <c r="Z32">
-        <v>4.281560068433973</v>
+        <v>3.9971606868913212</v>
       </c>
       <c r="AA32">
-        <v>0.75778339429101471</v>
+        <v>1.012674051761338E-2</v>
       </c>
       <c r="AB32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -5436,22 +5479,22 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>-3.6388660479834938</v>
+        <v>-0.96840832213366246</v>
       </c>
       <c r="AG32">
-        <v>0.42628200846392272</v>
+        <v>0.25994612154186569</v>
       </c>
       <c r="AH32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI32">
-        <v>-2.3752720246754775</v>
+        <v>0.12912422184350617</v>
       </c>
       <c r="AJ32">
-        <v>0.18822354636508534</v>
+        <v>9.4534838877287433E-2</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -5463,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>91.84</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>7.2387944533560509</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>49.708333333333336</v>
+        <v>-80</v>
       </c>
       <c r="AS32">
-        <v>0.6003471218109292</v>
+        <v>3.6932573750822573</v>
       </c>
       <c r="AT32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
@@ -5489,28 +5532,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="E33">
-        <v>109.58571428571429</v>
+        <v>101.4</v>
       </c>
       <c r="F33">
-        <v>7.9982140863713171</v>
+        <v>7.2362506327564056</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>22.132368777024709</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4.4264737554049418</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -5522,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>-102</v>
+        <v>-101.5</v>
       </c>
       <c r="O33">
-        <v>6.4625245455885869</v>
+        <v>6.4308455036984471</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -5549,22 +5592,22 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>11.064474887288533</v>
+        <v>11</v>
       </c>
       <c r="X33">
-        <v>0.28488608664306192</v>
+        <v>0.28322599897387801</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>0.19184714351226026</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5576,22 +5619,22 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-4.9827157586780739</v>
+        <v>-4.3260580013659125</v>
       </c>
       <c r="AG33">
-        <v>0.66020783020185903</v>
+        <v>0.68639129341797445</v>
       </c>
       <c r="AH33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>6.8766978856811892E-2</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>8.5033524110052442E-3</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -5612,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>25.5</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="AS33">
-        <v>1.1772257883074695</v>
+        <v>7.0710678118670822E-2</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
@@ -5629,19 +5672,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="E34">
-        <v>96.174999999999997</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>7.2168783648703219</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5662,13 +5705,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>-97.9</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>6.2027564020894381</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -5689,22 +5732,22 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>10.720407474148484</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>0.27602710147933929</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>0.12020815280171303</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5716,19 +5759,19 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-4.0295295311185804</v>
+        <v>-3.3442177994290483</v>
       </c>
       <c r="AG34">
-        <v>0.33620127189764476</v>
+        <v>0.53060823042519367</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>-2.1255891224464589</v>
+        <v>-2.1445400588030026</v>
       </c>
       <c r="AJ34">
-        <v>0.63767673673393765</v>
+        <v>0.26518221656197488</v>
       </c>
       <c r="AK34">
         <v>1</v>
@@ -5752,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>-10.95</v>
+        <v>-21</v>
       </c>
       <c r="AS34">
-        <v>0.50551460321438391</v>
+        <v>0.96948006095909256</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -5769,19 +5812,19 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E35">
-        <v>107.25</v>
+        <v>81.233333333333334</v>
       </c>
       <c r="F35">
-        <v>4.1154181642533825</v>
+        <v>2.9091808698211468</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5802,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-104</v>
+        <v>-79.8</v>
       </c>
       <c r="O35">
-        <v>6.5892407131491479</v>
+        <v>14.117011015083925</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -5829,22 +5872,22 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>11.296948484835518</v>
+        <v>7.914452287052451</v>
       </c>
       <c r="X35">
-        <v>0.29087177454308882</v>
+        <v>6.3438854805062408E-2</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1.6487788978175042</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>0.19072172315272956</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -5856,22 +5899,22 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>-4.8811502522142618</v>
+        <v>-1.3849533306583126</v>
       </c>
       <c r="AG35">
-        <v>0.52309835760605849</v>
+        <v>0.17815080358449792</v>
       </c>
       <c r="AH35">
         <v>4</v>
       </c>
       <c r="AI35">
-        <v>-3.6970513553893394</v>
+        <v>1.4162808651238727</v>
       </c>
       <c r="AJ35">
-        <v>1.1091154066168019</v>
+        <v>2.992467579434344E-2</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -5892,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>76.875</v>
+        <v>-45</v>
       </c>
       <c r="AS35">
-        <v>0.62915286960589578</v>
+        <v>14.142135623730951</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -5909,19 +5952,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E36">
-        <v>106.39999999999999</v>
+        <v>90.566666666666663</v>
       </c>
       <c r="F36">
-        <v>3.9564293666554136</v>
+        <v>9.2251467919666919</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5942,10 +5985,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>-103.56666666666666</v>
+        <v>-90.3</v>
       </c>
       <c r="O36">
-        <v>7.4875452141094492</v>
+        <v>15.703821191035079</v>
       </c>
       <c r="P36">
         <v>3</v>
@@ -5969,22 +6012,22 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>11.043333333333331</v>
+        <v>8.5999801895500738</v>
       </c>
       <c r="X36">
-        <v>0.48335632129241141</v>
+        <v>0.93553903324940713</v>
       </c>
       <c r="Y36">
         <v>3</v>
       </c>
       <c r="Z36">
-        <v>4.0149999999999997</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="AA36">
-        <v>0.41137979208188291</v>
+        <v>6.3639610306789496E-2</v>
       </c>
       <c r="AB36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -5996,49 +6039,49 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>-4.5257014829074143</v>
+        <v>-2.0793529564966393</v>
       </c>
       <c r="AG36">
-        <v>0.26343339067048643</v>
+        <v>0.83649137759001246</v>
       </c>
       <c r="AH36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI36">
-        <v>0.22099596443744718</v>
+        <v>0.56851833009543651</v>
       </c>
       <c r="AJ36">
-        <v>0.15524653687336698</v>
+        <v>8.5459697155219894E-2</v>
       </c>
       <c r="AK36">
+        <v>3</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>-45.5</v>
+      </c>
+      <c r="AS36">
+        <v>7.7781745930520225</v>
+      </c>
+      <c r="AT36">
         <v>2</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>-70</v>
-      </c>
-      <c r="AS36">
-        <v>3.2316002031969751</v>
-      </c>
-      <c r="AT36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
@@ -6049,19 +6092,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E37">
-        <v>108.8053199021883</v>
+        <v>97</v>
       </c>
       <c r="F37">
-        <v>2.7599602935757312</v>
+        <v>5.0239426748321856</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6082,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>-105.63333333333333</v>
+        <v>-93.066666666666663</v>
       </c>
       <c r="O37">
-        <v>5.6109268396584868</v>
+        <v>5.7500724633115148</v>
       </c>
       <c r="P37">
         <v>3</v>
@@ -6109,50 +6152,50 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>11.254058807284656</v>
+        <v>10.196734960730311</v>
       </c>
       <c r="X37">
-        <v>0.56090842337414826</v>
+        <v>0.35717875532112214</v>
       </c>
       <c r="Y37">
         <v>3</v>
       </c>
       <c r="Z37">
-        <v>4.4551030939086207</v>
+        <v>3.7354013998198079</v>
       </c>
       <c r="AA37">
-        <v>0.51039582393287042</v>
+        <v>5.478325049151412E-2</v>
       </c>
       <c r="AB37">
+        <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>-3.8968901507926397</v>
+      </c>
+      <c r="AG37">
+        <v>0.8017700738440946</v>
+      </c>
+      <c r="AH37">
+        <v>5</v>
+      </c>
+      <c r="AI37">
+        <v>-1.5157161364205862</v>
+      </c>
+      <c r="AJ37">
+        <v>0.23853678415206614</v>
+      </c>
+      <c r="AK37">
         <v>3</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>-4.6558136987291556</v>
-      </c>
-      <c r="AG37">
-        <v>0.27719074419421286</v>
-      </c>
-      <c r="AH37">
-        <v>7</v>
-      </c>
-      <c r="AI37">
-        <v>-4.7043664347305514</v>
-      </c>
-      <c r="AJ37">
-        <v>2.6083556879317391</v>
-      </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
       <c r="AL37">
         <v>0</v>
       </c>
@@ -6172,13 +6215,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>-72</v>
+        <v>27</v>
       </c>
       <c r="AS37">
-        <v>2.8284271247461903</v>
+        <v>8.1</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
@@ -6189,19 +6232,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E38">
-        <v>135</v>
+        <v>94.320000000000007</v>
       </c>
       <c r="F38">
-        <v>9.6340614933147393</v>
+        <v>8.6586373061816122</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -6222,13 +6265,13 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-95.100000000000009</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>5.8077534382926403</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -6249,22 +6292,22 @@
         <v>0</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>10.202624059176518</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>0.16599464740887165</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>4.281560068433973</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>0.75778339429101471</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -6276,22 +6319,22 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>-5.9337440369338292</v>
+        <v>-3.6388660479834938</v>
       </c>
       <c r="AG38">
-        <v>0.94147379508925533</v>
+        <v>0.42628200846392272</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>-2.3752720246754775</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>0.18822354636508534</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -6303,22 +6346,22 @@
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>91.84</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>7.2387944533560509</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>99.75</v>
+        <v>49.708333333333336</v>
       </c>
       <c r="AS38">
-        <v>0.35355339059327379</v>
+        <v>0.6003471218109292</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
@@ -6329,101 +6372,101 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E39">
-        <v>111.56666666666666</v>
+        <v>109.58571428571429</v>
       </c>
       <c r="F39">
-        <v>4.8850110883531626</v>
+        <v>7.9982140863713171</v>
       </c>
       <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>-102</v>
+      </c>
+      <c r="O39">
+        <v>6.4625245455885869</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>11.064474887288533</v>
+      </c>
+      <c r="X39">
+        <v>0.28488608664306192</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>-4.9827157586780739</v>
+      </c>
+      <c r="AG39">
+        <v>0.66020783020185903</v>
+      </c>
+      <c r="AH39">
         <v>3</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>-106.65</v>
-      </c>
-      <c r="O39">
-        <v>0.91923881554250975</v>
-      </c>
-      <c r="P39">
-        <v>2</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>11.609699222331166</v>
-      </c>
-      <c r="X39">
-        <v>0.24084166946195062</v>
-      </c>
-      <c r="Y39">
-        <v>2</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>-5.2702642012958201</v>
-      </c>
-      <c r="AG39">
-        <v>0.18378959287479971</v>
-      </c>
-      <c r="AH39">
-        <v>4</v>
-      </c>
       <c r="AI39">
         <v>0</v>
       </c>
@@ -6452,13 +6495,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1.1772257883074695</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -6469,16 +6512,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E40">
-        <v>98.617666666666665</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="F40">
-        <v>11.372626624194313</v>
+        <v>7.2168783648703219</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -6502,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-99.75</v>
+        <v>-97.9</v>
       </c>
       <c r="O40">
-        <v>6.7175144212722016</v>
+        <v>6.2027564020894381</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -6529,49 +6572,49 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>10.879999999999999</v>
+        <v>10.720407474148484</v>
       </c>
       <c r="X40">
-        <v>0.45254833995938959</v>
+        <v>0.27602710147933929</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>5.5325137523428518</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.4666388278829241</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-5.5353437273052064</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>1.6606031181915619</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>-4.2249019599857434</v>
+        <v>-4.0295295311185804</v>
       </c>
       <c r="AG40">
-        <v>0.21483584436789924</v>
+        <v>0.33620127189764476</v>
       </c>
       <c r="AH40">
         <v>3</v>
       </c>
       <c r="AI40">
-        <v>-2.8238365561540544</v>
+        <v>-2.1255891224464589</v>
       </c>
       <c r="AJ40">
-        <v>0.90185046293129689</v>
+        <v>0.63767673673393765</v>
       </c>
       <c r="AK40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -6592,13 +6635,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>-67</v>
+        <v>-10.95</v>
       </c>
       <c r="AS40">
-        <v>18.384776310850235</v>
+        <v>0.50551460321438391</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
@@ -6609,19 +6652,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E41">
-        <v>77.2</v>
+        <v>107.25</v>
       </c>
       <c r="F41">
-        <v>5.5092559058066515</v>
+        <v>4.1154181642533825</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -6642,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -6669,236 +6712,236 @@
         <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>11.296948484835518</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>0.29087177454308882</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>4.6850000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.41719300090006356</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>-4.8811502522142618</v>
+      </c>
+      <c r="AG41">
+        <v>0.52309835760605849</v>
+      </c>
+      <c r="AH41">
+        <v>4</v>
+      </c>
+      <c r="AI41">
+        <v>-3.6970513553893394</v>
+      </c>
+      <c r="AJ41">
+        <v>1.1091154066168019</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>76.875</v>
+      </c>
+      <c r="AS41">
+        <v>0.62915286960589578</v>
+      </c>
+      <c r="AT41">
         <v>2</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>-4.3871611703129787</v>
-      </c>
-      <c r="AG41">
-        <v>0.69608618959187496</v>
-      </c>
-      <c r="AH41">
-        <v>1</v>
-      </c>
-      <c r="AI41">
-        <v>-2.2900095802422902</v>
-      </c>
-      <c r="AJ41">
-        <v>0.49424642991199053</v>
-      </c>
-      <c r="AK41">
-        <v>2</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>119.5</v>
-      </c>
-      <c r="AS41">
-        <v>5.5168032040291219</v>
-      </c>
-      <c r="AT41">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E42">
-        <v>102.97044542908371</v>
+        <v>106.39999999999999</v>
       </c>
       <c r="F42">
-        <v>8.2645317733743067</v>
+        <v>3.9564293666554136</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>28.535700146660066</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>9.3194645443453155</v>
+        <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>-103.56666666666666</v>
+      </c>
+      <c r="O42">
+        <v>7.4875452141094492</v>
+      </c>
+      <c r="P42">
         <v>3</v>
       </c>
-      <c r="K42">
-        <v>7.6253721994684973</v>
-      </c>
-      <c r="L42">
-        <v>2.2876116598405489</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>-101.25</v>
-      </c>
-      <c r="O42">
-        <v>2.616295090390218</v>
-      </c>
-      <c r="P42">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>11.043333333333331</v>
+      </c>
+      <c r="X42">
+        <v>0.48335632129241141</v>
+      </c>
+      <c r="Y42">
+        <v>3</v>
+      </c>
+      <c r="Z42">
+        <v>4.0149999999999997</v>
+      </c>
+      <c r="AA42">
+        <v>0.41137979208188291</v>
+      </c>
+      <c r="AB42">
+        <v>4</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>-4.5257014829074143</v>
+      </c>
+      <c r="AG42">
+        <v>0.26343339067048643</v>
+      </c>
+      <c r="AH42">
+        <v>7</v>
+      </c>
+      <c r="AI42">
+        <v>0.22099596443744718</v>
+      </c>
+      <c r="AJ42">
+        <v>0.15524653687336698</v>
+      </c>
+      <c r="AK42">
         <v>2</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>-25.4</v>
-      </c>
-      <c r="U42">
-        <v>5.08</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>11.228588497286774</v>
-      </c>
-      <c r="X42">
-        <v>0.46868664186349301</v>
-      </c>
-      <c r="Y42">
-        <v>2</v>
-      </c>
-      <c r="Z42">
-        <v>6.1318209339345842</v>
-      </c>
-      <c r="AA42">
-        <v>0.2700030284701323</v>
-      </c>
-      <c r="AB42">
-        <v>5</v>
-      </c>
-      <c r="AC42">
-        <v>-4.5228787452803374</v>
-      </c>
-      <c r="AD42">
-        <v>0.90457574905606752</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>-4.6349999999999998</v>
-      </c>
-      <c r="AG42">
-        <v>0.57275649276110319</v>
-      </c>
-      <c r="AH42">
-        <v>9</v>
-      </c>
-      <c r="AI42">
-        <v>-4.1856271642104357</v>
-      </c>
-      <c r="AJ42">
-        <v>0.27611870329049543</v>
-      </c>
-      <c r="AK42">
-        <v>11</v>
-      </c>
       <c r="AL42">
-        <v>2.2353977200130184</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>0.44707954400260369</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>36.703691924967444</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.8061861822140384</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>177.33333333333334</v>
+        <v>-70</v>
       </c>
       <c r="AS42">
-        <v>1.5275252316519465</v>
+        <v>3.2316002031969751</v>
       </c>
       <c r="AT42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E43">
-        <v>105.49559435946666</v>
+        <v>108.8053199021883</v>
       </c>
       <c r="F43">
-        <v>7.5751191460147407</v>
+        <v>2.7599602935757312</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -6922,135 +6965,135 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>-100.05</v>
+        <v>-105.63333333333333</v>
       </c>
       <c r="O43">
-        <v>2.0506096654409918</v>
+        <v>5.6109268396584868</v>
       </c>
       <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>11.254058807284656</v>
+      </c>
+      <c r="X43">
+        <v>0.56090842337414826</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>4.4551030939086207</v>
+      </c>
+      <c r="AA43">
+        <v>0.51039582393287042</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>-4.6558136987291556</v>
+      </c>
+      <c r="AG43">
+        <v>0.27719074419421286</v>
+      </c>
+      <c r="AH43">
+        <v>7</v>
+      </c>
+      <c r="AI43">
+        <v>-4.7043664347305514</v>
+      </c>
+      <c r="AJ43">
+        <v>2.6083556879317391</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>-72</v>
+      </c>
+      <c r="AS43">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="AT43">
         <v>2</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>11.073997910243794</v>
-      </c>
-      <c r="X43">
-        <v>0.41861016982400551</v>
-      </c>
-      <c r="Y43">
-        <v>2</v>
-      </c>
-      <c r="Z43">
-        <v>5.6850000000000005</v>
-      </c>
-      <c r="AA43">
-        <v>0.36062445840513968</v>
-      </c>
-      <c r="AB43">
-        <v>2</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>-4.6904457173535388</v>
-      </c>
-      <c r="AG43">
-        <v>0.35274120168317763</v>
-      </c>
-      <c r="AH43">
-        <v>4</v>
-      </c>
-      <c r="AI43">
-        <v>-3.5173626058676488</v>
-      </c>
-      <c r="AJ43">
-        <v>0.25242396939971701</v>
-      </c>
-      <c r="AK43">
-        <v>2</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>216.61666666666667</v>
-      </c>
-      <c r="AS43">
-        <v>0.53928965624545278</v>
-      </c>
-      <c r="AT43">
-        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E44">
-        <v>94.14</v>
+        <v>135</v>
       </c>
       <c r="F44">
-        <v>4.4506179346243595</v>
+        <v>9.6340614933147393</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2.9800000000000004</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -7062,123 +7105,123 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>-93.4</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>4.6669047558312196</v>
+        <v>0</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>-5.9337440369338292</v>
+      </c>
+      <c r="AG44">
+        <v>0.94147379508925533</v>
+      </c>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>99.75</v>
+      </c>
+      <c r="AS44">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AT44">
         <v>2</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>-21.7</v>
-      </c>
-      <c r="U44">
-        <v>4.34</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>10.434999999999999</v>
-      </c>
-      <c r="X44">
-        <v>0.13435028842544369</v>
-      </c>
-      <c r="Y44">
-        <v>2</v>
-      </c>
-      <c r="Z44">
-        <v>6.6174999999999997</v>
-      </c>
-      <c r="AA44">
-        <v>0.39969780251251513</v>
-      </c>
-      <c r="AB44">
-        <v>4</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>-3.7075139892385729</v>
-      </c>
-      <c r="AG44">
-        <v>0.19995588786711851</v>
-      </c>
-      <c r="AH44">
-        <v>5</v>
-      </c>
-      <c r="AI44">
-        <v>-4.0697069918861315</v>
-      </c>
-      <c r="AJ44">
-        <v>7.1457772538696201E-2</v>
-      </c>
-      <c r="AK44">
-        <v>3</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>48.472961613897454</v>
-      </c>
-      <c r="AP44">
-        <v>3.820620706319922</v>
-      </c>
-      <c r="AQ44">
-        <v>1</v>
-      </c>
-      <c r="AR44">
-        <v>83.875</v>
-      </c>
-      <c r="AS44">
-        <v>0.17677669529663689</v>
-      </c>
-      <c r="AT44">
-        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E45">
-        <v>96.833333333333329</v>
+        <v>111.56666666666666</v>
       </c>
       <c r="F45">
-        <v>2.9704096238285618</v>
+        <v>4.8850110883531626</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7202,13 +7245,13 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>-103</v>
+        <v>-106.65</v>
       </c>
       <c r="O45">
-        <v>6.5258826293688674</v>
+        <v>0.91923881554250975</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -7229,10 +7272,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>10.655000000000001</v>
+        <v>11.609699222331166</v>
       </c>
       <c r="X45">
-        <v>0.23334523779156074</v>
+        <v>0.24084166946195062</v>
       </c>
       <c r="Y45">
         <v>2</v>
@@ -7256,22 +7299,22 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-3.8064674031393619</v>
+        <v>-5.2702642012958201</v>
       </c>
       <c r="AG45">
-        <v>0.15897540206098351</v>
+        <v>0.18378959287479971</v>
       </c>
       <c r="AH45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI45">
-        <v>-3.6293678108253968</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0.44878797989465358</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -7292,36 +7335,36 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>4.8935660219839905</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>98.617666666666665</v>
       </c>
       <c r="F46">
-        <v>7.136341846899807</v>
+        <v>11.372626624194313</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -7342,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>-98.4</v>
+        <v>-99.75</v>
       </c>
       <c r="O46">
-        <v>6.2344354439795788</v>
+        <v>6.7175144212722016</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -7369,49 +7412,49 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>10.361775178295694</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="X46">
-        <v>0.26679310236504827</v>
+        <v>0.45254833995938959</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>5.5325137523428518</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>0.4666388278829241</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>-5.5353437273052064</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1.6606031181915619</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
-        <v>-3.7529626300087369</v>
+        <v>-4.2249019599857434</v>
       </c>
       <c r="AG46">
-        <v>0.59546147392098581</v>
+        <v>0.21483584436789924</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>-2.8238365561540544</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>0.90185046293129689</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -7432,36 +7475,36 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>18.384776310850235</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E47">
-        <v>113</v>
+        <v>77.2</v>
       </c>
       <c r="F47">
-        <v>15.556349186104045</v>
+        <v>5.5092559058066515</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -7482,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>7.7296862211941928</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -7509,19 +7552,19 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>11.375613387532628</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>0.34734978374903991</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>6.98</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="AA47">
-        <v>0.36769552621700502</v>
+        <v>0.41719300090006356</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -7536,19 +7579,19 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>-4.4248091794189603</v>
+        <v>-4.3871611703129787</v>
       </c>
       <c r="AG47">
-        <v>0.1257038377706223</v>
+        <v>0.69608618959187496</v>
       </c>
       <c r="AH47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>-3.9164203700479505</v>
+        <v>-2.2900095802422902</v>
       </c>
       <c r="AJ47">
-        <v>0.21552936573178999</v>
+        <v>0.49424642991199053</v>
       </c>
       <c r="AK47">
         <v>2</v>
@@ -7572,204 +7615,204 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>99</v>
+        <v>114.425</v>
       </c>
       <c r="AS47">
-        <v>2.1213203435596424</v>
+        <v>5.282512189297341</v>
       </c>
       <c r="AT47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="E48">
-        <v>100.15</v>
+        <v>78.62</v>
       </c>
       <c r="F48">
-        <v>9.0053687690547495</v>
+        <v>0.29495762407505188</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>3.1000000000000014</v>
+        <v>29.560532019325517</v>
       </c>
       <c r="I48">
-        <v>0.62000000000000033</v>
+        <v>5.9121064038651037</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>12.216814093813408</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3.6650442281440223</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>-91.1</v>
+        <v>-88.930193804316445</v>
       </c>
       <c r="O48">
-        <v>27.33</v>
+        <v>5.6344466696504423</v>
       </c>
       <c r="P48">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>47.552228915797265</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>14.26566867473918</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>11.200000000000001</v>
+        <v>7.6566666666666663</v>
       </c>
       <c r="X48">
-        <v>0.1652271164185832</v>
+        <v>0.23586719427112637</v>
       </c>
       <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>4.479555555555554</v>
+      </c>
+      <c r="AA48">
+        <v>0.15412379372066357</v>
+      </c>
+      <c r="AB48">
+        <v>18</v>
+      </c>
+      <c r="AC48">
+        <v>-2.7655555555555558</v>
+      </c>
+      <c r="AD48">
+        <v>5.7686894332922602E-2</v>
+      </c>
+      <c r="AE48">
+        <v>9</v>
+      </c>
+      <c r="AF48">
+        <v>-1.067375</v>
+      </c>
+      <c r="AG48">
+        <v>8.5069614350332431E-2</v>
+      </c>
+      <c r="AH48">
+        <v>8</v>
+      </c>
+      <c r="AI48">
+        <v>-1.5933333333333335</v>
+      </c>
+      <c r="AJ48">
+        <v>8.6107448885814675E-2</v>
+      </c>
+      <c r="AK48">
+        <v>24</v>
+      </c>
+      <c r="AL48">
+        <v>3.15</v>
+      </c>
+      <c r="AM48">
+        <v>0.63</v>
+      </c>
+      <c r="AN48">
         <v>3</v>
       </c>
-      <c r="Z48">
-        <v>7.1433333333333335</v>
-      </c>
-      <c r="AA48">
-        <v>0.36828431046317112</v>
-      </c>
-      <c r="AB48">
-        <v>3</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>-4.4678337478400705</v>
-      </c>
-      <c r="AG48">
-        <v>0.28281797910706313</v>
-      </c>
-      <c r="AH48">
-        <v>4</v>
-      </c>
-      <c r="AI48">
-        <v>-4.2554666846671543</v>
-      </c>
-      <c r="AJ48">
-        <v>0.29719362983561631</v>
-      </c>
-      <c r="AK48">
-        <v>3</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
       <c r="AO48">
-        <v>77.464788732394354</v>
+        <v>16.560833333333335</v>
       </c>
       <c r="AP48">
-        <v>6.1057456773350891</v>
+        <v>1.2504941447526279</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AR48">
-        <v>86.283333333333346</v>
+        <v>99.2</v>
       </c>
       <c r="AS48">
-        <v>7.5306872196367154</v>
+        <v>4.5796391451019991</v>
       </c>
       <c r="AT48">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E49">
-        <v>73.524218355999992</v>
+        <v>102.97044542908371</v>
       </c>
       <c r="F49">
-        <v>0.10717142872373359</v>
+        <v>8.2645317733743067</v>
       </c>
       <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>28.535700146660066</v>
+      </c>
+      <c r="I49">
+        <v>9.3194645443453155</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>7.6253721994684973</v>
+      </c>
+      <c r="L49">
+        <v>2.2876116598405489</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>-101.25</v>
+      </c>
+      <c r="O49">
+        <v>2.616295090390218</v>
+      </c>
+      <c r="P49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>39</v>
-      </c>
-      <c r="I49">
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>-61.2</v>
-      </c>
-      <c r="O49">
-        <v>3.8775147273531525</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -7780,136 +7823,136 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>-25.4</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>7.5390552184404918</v>
+        <v>11.228588497286774</v>
       </c>
       <c r="X49">
-        <v>0.19411422232382147</v>
+        <v>0.46868664186349301</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>5.26</v>
+        <v>6.1318209339345842</v>
       </c>
       <c r="AA49">
-        <v>0.3111269837220812</v>
+        <v>0.2700030284701323</v>
       </c>
       <c r="AB49">
+        <v>5</v>
+      </c>
+      <c r="AC49">
+        <v>-4.5228787452803374</v>
+      </c>
+      <c r="AD49">
+        <v>0.90457574905606752</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
+      </c>
+      <c r="AF49">
+        <v>-4.6349999999999998</v>
+      </c>
+      <c r="AG49">
+        <v>0.57275649276110319</v>
+      </c>
+      <c r="AH49">
+        <v>9</v>
+      </c>
+      <c r="AI49">
+        <v>-4.1856271642104357</v>
+      </c>
+      <c r="AJ49">
+        <v>0.27611870329049543</v>
+      </c>
+      <c r="AK49">
+        <v>11</v>
+      </c>
+      <c r="AL49">
+        <v>2.2353977200130184</v>
+      </c>
+      <c r="AM49">
+        <v>0.44707954400260369</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>36.703691924967444</v>
+      </c>
+      <c r="AP49">
+        <v>2.8061861822140384</v>
+      </c>
+      <c r="AQ49">
         <v>2</v>
       </c>
-      <c r="AC49">
-        <v>-1.9124978394296193</v>
-      </c>
-      <c r="AD49">
-        <v>0.16164821075426294</v>
-      </c>
-      <c r="AE49">
-        <v>2</v>
-      </c>
-      <c r="AF49">
-        <v>-1.1806733242754686</v>
-      </c>
-      <c r="AG49">
-        <v>0.14119223273996104</v>
-      </c>
-      <c r="AH49">
-        <v>3</v>
-      </c>
-      <c r="AI49">
-        <v>-2.4696037487087663</v>
-      </c>
-      <c r="AJ49">
-        <v>0.26889462132834718</v>
-      </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
       <c r="AR49">
-        <v>91</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="AS49">
-        <v>4.2010802641560678</v>
+        <v>1.5275252316519465</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E50">
-        <v>80.262301825000009</v>
+        <v>105.49559435946666</v>
       </c>
       <c r="F50">
-        <v>3.164583107582521</v>
+        <v>7.5751191460147407</v>
       </c>
       <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>-100.05</v>
+      </c>
+      <c r="O50">
+        <v>2.0506096654409918</v>
+      </c>
+      <c r="P50">
         <v>2</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>-70.099999999999994</v>
-      </c>
-      <c r="O50">
-        <v>4.441401672997646</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
@@ -7929,50 +7972,50 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>7.993297276476711</v>
+        <v>11.073997910243794</v>
       </c>
       <c r="X50">
-        <v>0.20580996420229952</v>
+        <v>0.41861016982400551</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>5.71</v>
+        <v>5.6850000000000005</v>
       </c>
       <c r="AA50">
-        <v>1.1420000000000001</v>
+        <v>0.36062445840513968</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC50">
-        <v>-2.087498225774242</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>0.41749964515484844</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>-1.4403667064642687</v>
+        <v>-4.6904457173535388</v>
       </c>
       <c r="AG50">
-        <v>0.12779782186875707</v>
+        <v>0.35274120168317763</v>
       </c>
       <c r="AH50">
+        <v>4</v>
+      </c>
+      <c r="AI50">
+        <v>-3.5173626058676488</v>
+      </c>
+      <c r="AJ50">
+        <v>0.25242396939971701</v>
+      </c>
+      <c r="AK50">
         <v>2</v>
       </c>
-      <c r="AI50">
-        <v>-2.98523196960676</v>
-      </c>
-      <c r="AJ50">
-        <v>0.36913762809068135</v>
-      </c>
-      <c r="AK50">
-        <v>1</v>
-      </c>
       <c r="AL50">
         <v>0</v>
       </c>
@@ -7992,42 +8035,42 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>57.75</v>
+        <v>216.61666666666667</v>
       </c>
       <c r="AS50">
-        <v>0.35355339059327379</v>
+        <v>0.53928965624545278</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E51">
-        <v>77.099999999999994</v>
+        <v>94.14</v>
       </c>
       <c r="F51">
-        <v>5.5021195639597513</v>
+        <v>4.4506179346243595</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>31.8</v>
+        <v>14.9</v>
       </c>
       <c r="I51">
-        <v>6.36</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -8042,13 +8085,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>-76.099999999999994</v>
+        <v>-93.4</v>
       </c>
       <c r="O51">
-        <v>4.8215501756793282</v>
+        <v>4.6669047558312196</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -8060,59 +8103,59 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>-21.7</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>9.0261907024857795</v>
+        <v>10.434999999999999</v>
       </c>
       <c r="X51">
-        <v>0.23240471624002404</v>
+        <v>0.13435028842544369</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>6.4024999999999999</v>
+        <v>6.6174999999999997</v>
       </c>
       <c r="AA51">
-        <v>1.2805</v>
+        <v>0.39969780251251513</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC51">
-        <v>-2.5192965017072471</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>0.50385930034144943</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>-2.4598699455590731</v>
+        <v>-3.7075139892385729</v>
       </c>
       <c r="AG51">
-        <v>0.15642979300815249</v>
+        <v>0.19995588786711851</v>
       </c>
       <c r="AH51">
+        <v>5</v>
+      </c>
+      <c r="AI51">
+        <v>-4.0697069918861315</v>
+      </c>
+      <c r="AJ51">
+        <v>7.1457772538696201E-2</v>
+      </c>
+      <c r="AK51">
         <v>3</v>
       </c>
-      <c r="AI51">
-        <v>-4.4217108558101943</v>
-      </c>
-      <c r="AJ51">
-        <v>0.54676483235961115</v>
-      </c>
-      <c r="AK51">
-        <v>1</v>
-      </c>
       <c r="AL51">
         <v>0</v>
       </c>
@@ -8123,42 +8166,42 @@
         <v>0</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>48.472961613897454</v>
       </c>
       <c r="AP51">
-        <v>0</v>
+        <v>3.820620706319922</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>76</v>
+        <v>83.875</v>
       </c>
       <c r="AS51">
-        <v>3.5085945063281443</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E52">
-        <v>77.521050303999999</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="F52">
-        <v>3.0417753598014903</v>
+        <v>2.9704096238285618</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -8182,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>-63.8</v>
+        <v>-103</v>
       </c>
       <c r="O52">
-        <v>4.042245745181881</v>
+        <v>6.5258826293688674</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -8209,22 +8252,22 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>7.6828040702811879</v>
+        <v>10.655000000000001</v>
       </c>
       <c r="X52">
-        <v>2.1784930946130668E-2</v>
+        <v>0.23334523779156074</v>
       </c>
       <c r="Y52">
         <v>2</v>
       </c>
       <c r="Z52">
-        <v>5.2862499999999999</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>1.9445436482629957E-2</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -8236,22 +8279,22 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>-1.1641242474646873</v>
+        <v>-3.8064674031393619</v>
       </c>
       <c r="AG52">
-        <v>0.17316928979703319</v>
+        <v>0.15897540206098351</v>
       </c>
       <c r="AH52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI52">
-        <v>-3.2819205999699497</v>
+        <v>-3.6293678108253968</v>
       </c>
       <c r="AJ52">
-        <v>0.44450077171695895</v>
+        <v>0.44878797989465358</v>
       </c>
       <c r="AK52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL52">
         <v>0</v>
@@ -8272,36 +8315,36 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>29.083333333333332</v>
+        <v>106</v>
       </c>
       <c r="AS52">
-        <v>0.38188130791298669</v>
+        <v>4.8935660219839905</v>
       </c>
       <c r="AT52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E53">
-        <v>85.341688061999989</v>
+        <v>100</v>
       </c>
       <c r="F53">
-        <v>1.7560120975171565</v>
+        <v>7.136341846899807</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -8322,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>-83</v>
+        <v>-98.4</v>
       </c>
       <c r="O53">
-        <v>5.2587209537632624</v>
+        <v>6.2344354439795788</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -8349,49 +8392,49 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>9.5354454649199933</v>
+        <v>10.361775178295694</v>
       </c>
       <c r="X53">
-        <v>6.0454967129327825E-2</v>
+        <v>0.26679310236504827</v>
       </c>
       <c r="Y53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z53">
-        <v>6.665</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.16263455967290624</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>-2.5888519995337749</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>0.29502137502894887</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>-3.0450153498164276</v>
+        <v>-3.7529626300087369</v>
       </c>
       <c r="AG53">
-        <v>0.24220774330514885</v>
+        <v>0.59546147392098581</v>
       </c>
       <c r="AH53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI53">
-        <v>-4.9723347322518059</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0.64224406619288954</v>
+        <v>0</v>
       </c>
       <c r="AK53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -8412,45 +8455,45 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AS53">
-        <v>6.2785375376398376</v>
+        <v>0</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E54">
-        <v>85.186631759000008</v>
+        <v>113</v>
       </c>
       <c r="F54">
-        <v>5.9586025096942681</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -8462,10 +8505,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>-77</v>
+        <v>-122</v>
       </c>
       <c r="O54">
-        <v>4.8785724510815802</v>
+        <v>7.7296862211941928</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -8489,49 +8532,49 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>8.3783125260505589</v>
+        <v>11.375613387532628</v>
       </c>
       <c r="X54">
-        <v>6.3856714674023748E-2</v>
+        <v>0.34734978374903991</v>
       </c>
       <c r="Y54">
         <v>2</v>
       </c>
       <c r="Z54">
-        <v>5.9708333333333323</v>
+        <v>6.98</v>
       </c>
       <c r="AA54">
-        <v>0.30598542993635075</v>
+        <v>0.36769552621700502</v>
       </c>
       <c r="AB54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC54">
-        <v>-2.1097746204853944</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>0.42195492409707891</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>-1.8415366630123795</v>
+        <v>-4.4248091794189603</v>
       </c>
       <c r="AG54">
-        <v>3.7003294481798843E-2</v>
+        <v>0.1257038377706223</v>
       </c>
       <c r="AH54">
         <v>3</v>
       </c>
       <c r="AI54">
-        <v>-3.7707483866126688</v>
+        <v>-3.9164203700479505</v>
       </c>
       <c r="AJ54">
-        <v>0.31763768319090768</v>
+        <v>0.21552936573178999</v>
       </c>
       <c r="AK54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -8543,54 +8586,54 @@
         <v>0</v>
       </c>
       <c r="AO54">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>4.7291775609904514</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54">
-        <v>42.916666666666664</v>
+        <v>99</v>
       </c>
       <c r="AS54">
-        <v>2.4537386440559095</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E55">
-        <v>93.6</v>
+        <v>100.15</v>
       </c>
       <c r="F55">
-        <v>6.6796159686982195</v>
+        <v>9.0053687690547495</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.62000000000000033</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -8602,10 +8645,10 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>-82.3</v>
+        <v>-91.1</v>
       </c>
       <c r="O55">
-        <v>5.2143702951170656</v>
+        <v>27.33</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -8629,49 +8672,49 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>10.270436050858564</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="X55">
-        <v>0.10951371931483565</v>
+        <v>0.1652271164185832</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>7.1433333333333335</v>
       </c>
       <c r="AA55">
-        <v>0</v>
+        <v>0.36828431046317112</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC55">
-        <v>-3.2424001857599851</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>0.64848003715199709</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>-3.5667759081346233</v>
+        <v>-4.4678337478400705</v>
       </c>
       <c r="AG55">
-        <v>0.56592027387140831</v>
+        <v>0.28281797910706313</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI55">
-        <v>-4.9091550554090064</v>
+        <v>-4.2554666846671543</v>
       </c>
       <c r="AJ55">
-        <v>0.60703954383878933</v>
+        <v>0.29719362983561631</v>
       </c>
       <c r="AK55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL55">
         <v>0</v>
@@ -8683,22 +8726,22 @@
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>77.464788732394354</v>
       </c>
       <c r="AP55">
-        <v>0</v>
+        <v>6.1057456773350891</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>204.5</v>
+        <v>86.283333333333346</v>
       </c>
       <c r="AS55">
-        <v>9.4408891650540205</v>
+        <v>7.5306872196367154</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
@@ -8709,28 +8752,28 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E56">
-        <v>88.187381608999999</v>
+        <v>73.524218355999992</v>
       </c>
       <c r="F56">
-        <v>0.72495188087407936</v>
+        <v>0.10717142872373359</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -8742,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>-87.5</v>
+        <v>-61.2</v>
       </c>
       <c r="O56">
-        <v>5.5438323307745234</v>
+        <v>3.8775147273531525</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -8769,46 +8812,46 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>9.80286139538212</v>
+        <v>7.5390552184404918</v>
       </c>
       <c r="X56">
-        <v>7.0888148300808597E-3</v>
+        <v>0.19411422232382147</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>6.6549999999999994</v>
+        <v>5.26</v>
       </c>
       <c r="AA56">
-        <v>0.14849242404917495</v>
+        <v>0.3111269837220812</v>
       </c>
       <c r="AB56">
         <v>2</v>
       </c>
       <c r="AC56">
-        <v>-2.2302775143706985</v>
+        <v>-1.9124978394296193</v>
       </c>
       <c r="AD56">
-        <v>0.44605550287413975</v>
+        <v>0.16164821075426294</v>
       </c>
       <c r="AE56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF56">
-        <v>-3.2215368249492431</v>
+        <v>-1.1806733242754686</v>
       </c>
       <c r="AG56">
-        <v>8.1858281942174385E-2</v>
+        <v>0.14119223273996104</v>
       </c>
       <c r="AH56">
         <v>3</v>
       </c>
       <c r="AI56">
-        <v>-4.6128134783762764</v>
+        <v>-2.4696037487087663</v>
       </c>
       <c r="AJ56">
-        <v>0.23403260873049611</v>
+        <v>0.26889462132834718</v>
       </c>
       <c r="AK56">
         <v>2</v>
@@ -8832,10 +8875,10 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>102.5</v>
+        <v>91</v>
       </c>
       <c r="AS56">
-        <v>4.7319860118241417</v>
+        <v>4.2010802641560678</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -8849,28 +8892,28 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E57">
-        <v>104.05587005119456</v>
+        <v>80.262301825000009</v>
       </c>
       <c r="F57">
-        <v>0.65273974807507618</v>
+        <v>3.164583107582521</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>37.809999999999995</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>7.5619999999999994</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -8882,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>-104</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="O57">
-        <v>6.5892407131491479</v>
+        <v>4.441401672997646</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -8900,117 +8943,117 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>-23.8</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>4.7600000000000007</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>11.525637381635953</v>
+        <v>7.993297276476711</v>
       </c>
       <c r="X57">
-        <v>0.19984160559524264</v>
+        <v>0.20580996420229952</v>
       </c>
       <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>5.71</v>
+      </c>
+      <c r="AA57">
+        <v>1.1420000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>-2.087498225774242</v>
+      </c>
+      <c r="AD57">
+        <v>0.41749964515484844</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>-1.4403667064642687</v>
+      </c>
+      <c r="AG57">
+        <v>0.12779782186875707</v>
+      </c>
+      <c r="AH57">
         <v>2</v>
       </c>
-      <c r="Z57">
-        <v>8.1416737508306145</v>
-      </c>
-      <c r="AA57">
-        <v>0.25421187957856911</v>
-      </c>
-      <c r="AB57">
-        <v>8</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>-4.9397366133846008</v>
-      </c>
-      <c r="AG57">
-        <v>0.45466857646634756</v>
-      </c>
-      <c r="AH57">
-        <v>4</v>
-      </c>
       <c r="AI57">
-        <v>-5.8669835519668307</v>
+        <v>-2.98523196960676</v>
       </c>
       <c r="AJ57">
-        <v>0.22757118902063592</v>
+        <v>0.36913762809068135</v>
       </c>
       <c r="AK57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL57">
-        <v>1.533336835519298</v>
+        <v>0</v>
       </c>
       <c r="AM57">
-        <v>0.68025804777806742</v>
+        <v>0</v>
       </c>
       <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>57.75</v>
+      </c>
+      <c r="AS57">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AT57">
         <v>2</v>
-      </c>
-      <c r="AO57">
-        <v>55.188213787105745</v>
-      </c>
-      <c r="AP57">
-        <v>9.8727770120457699</v>
-      </c>
-      <c r="AQ57">
-        <v>3</v>
-      </c>
-      <c r="AR57">
-        <v>308.39285714285717</v>
-      </c>
-      <c r="AS57">
-        <v>5.139425111448797</v>
-      </c>
-      <c r="AT57">
-        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E58">
-        <v>77.251485714285693</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F58">
-        <v>0.96533834384387507</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>6.36</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -9022,10 +9065,10 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>-54.963853999999998</v>
+        <v>-76.099999999999994</v>
       </c>
       <c r="O58">
-        <v>3.4824044666190925</v>
+        <v>4.8215501756793282</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -9049,49 +9092,49 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>7</v>
+        <v>9.0261907024857795</v>
       </c>
       <c r="X58">
-        <v>0.18023472661974055</v>
+        <v>0.23240471624002404</v>
       </c>
       <c r="Y58">
         <v>1</v>
       </c>
       <c r="Z58">
-        <v>1.6110213059370522</v>
+        <v>6.4024999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.10675059659978832</v>
+        <v>1.2805</v>
       </c>
       <c r="AB58">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>-4.7471469690201067</v>
+        <v>-2.5192965017072471</v>
       </c>
       <c r="AD58">
-        <v>0.94942939380402136</v>
+        <v>0.50385930034144943</v>
       </c>
       <c r="AE58">
         <v>1</v>
       </c>
       <c r="AF58">
-        <v>-0.5737975003434046</v>
+        <v>-2.4598699455590731</v>
       </c>
       <c r="AG58">
-        <v>9.5464368197886035E-2</v>
+        <v>0.15642979300815249</v>
       </c>
       <c r="AH58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI58">
-        <v>1.3026136962115185</v>
+        <v>-4.4217108558101943</v>
       </c>
       <c r="AJ58">
-        <v>7.889766480857377E-2</v>
+        <v>0.54676483235961115</v>
       </c>
       <c r="AK58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL58">
         <v>0</v>
@@ -9103,45 +9146,45 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>4.8710528878201647</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58">
-        <v>5.4119999999999999</v>
+        <v>76</v>
       </c>
       <c r="AS58">
-        <v>0.23177575369309009</v>
+        <v>3.5085945063281443</v>
       </c>
       <c r="AT58">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="E59">
-        <v>83.510311011427788</v>
+        <v>77.521050303999999</v>
       </c>
       <c r="F59">
-        <v>2.0167132760553788</v>
+        <v>3.0417753598014903</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -9162,10 +9205,10 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>-59.087598</v>
+        <v>-63.8</v>
       </c>
       <c r="O59">
-        <v>3.7436769844595208</v>
+        <v>4.042245745181881</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -9189,49 +9232,49 @@
         <v>0</v>
       </c>
       <c r="W59">
-        <v>7.48</v>
+        <v>7.6828040702811879</v>
       </c>
       <c r="X59">
-        <v>0.19259367930223703</v>
+        <v>2.1784930946130668E-2</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>2.309034364660989</v>
+        <v>5.2862499999999999</v>
       </c>
       <c r="AA59">
-        <v>0.41659773461009664</v>
+        <v>1.9445436482629957E-2</v>
       </c>
       <c r="AB59">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>-4.7375489102695703</v>
+        <v>0</v>
       </c>
       <c r="AD59">
-        <v>0.94750978205391412</v>
+        <v>0</v>
       </c>
       <c r="AE59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>-0.86296934379017121</v>
+        <v>-1.1641242474646873</v>
       </c>
       <c r="AG59">
-        <v>0.22717615065451793</v>
+        <v>0.17316928979703319</v>
       </c>
       <c r="AH59">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AI59">
-        <v>0.6479393964825203</v>
+        <v>-3.2819205999699497</v>
       </c>
       <c r="AJ59">
-        <v>4.9413997541154983E-2</v>
+        <v>0.44450077171695895</v>
       </c>
       <c r="AK59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL59">
         <v>0</v>
@@ -9243,45 +9286,45 @@
         <v>0</v>
       </c>
       <c r="AO59">
-        <v>66.64</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>5.2525398777400616</v>
+        <v>0</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59">
-        <v>-50.183333333333337</v>
+        <v>29.083333333333332</v>
       </c>
       <c r="AS59">
-        <v>10.907871775312827</v>
+        <v>0.38188130791298669</v>
       </c>
       <c r="AT59">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="E60">
-        <v>88.7</v>
+        <v>85.341688061999989</v>
       </c>
       <c r="F60">
-        <v>6.3299352182001298</v>
+        <v>1.7560120975171565</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -9302,13 +9345,13 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>-83</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>5.2587209537632624</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -9329,49 +9372,49 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>9.5354454649199933</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>6.0454967129327825E-2</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>3.8510326049913961</v>
+        <v>6.665</v>
       </c>
       <c r="AA60">
-        <v>0.48041586212717508</v>
+        <v>0.16263455967290624</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>-2.5888519995337749</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>0.29502137502894887</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF60">
-        <v>-1.7569619513137056</v>
+        <v>-3.0450153498164276</v>
       </c>
       <c r="AG60">
-        <v>0.27876727169807036</v>
+        <v>0.24220774330514885</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI60">
-        <v>-0.37927796599702324</v>
+        <v>-4.9723347322518059</v>
       </c>
       <c r="AJ60">
-        <v>4.689946047095362E-2</v>
+        <v>0.64224406619288954</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL60">
         <v>0</v>
@@ -9392,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>-31</v>
+        <v>136</v>
       </c>
       <c r="AS60">
-        <v>1.4311372328443748</v>
+        <v>6.2785375376398376</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -9403,115 +9446,115 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E61">
-        <v>77.779285878211255</v>
+        <v>85.186631759000008</v>
       </c>
       <c r="F61">
-        <v>11.289652223038836</v>
+        <v>5.9586025096942681</v>
       </c>
       <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>32</v>
+      </c>
+      <c r="I61">
+        <v>6.4</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>-77</v>
+      </c>
+      <c r="O61">
+        <v>4.8785724510815802</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>8.3783125260505589</v>
+      </c>
+      <c r="X61">
+        <v>6.3856714674023748E-2</v>
+      </c>
+      <c r="Y61">
+        <v>2</v>
+      </c>
+      <c r="Z61">
+        <v>5.9708333333333323</v>
+      </c>
+      <c r="AA61">
+        <v>0.30598542993635075</v>
+      </c>
+      <c r="AB61">
         <v>3</v>
       </c>
-      <c r="H61">
-        <v>3.1389999999999998</v>
-      </c>
-      <c r="I61">
-        <v>0.62780000000000002</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>4.2356685525576738</v>
-      </c>
-      <c r="AA61">
-        <v>0.14754694795495324</v>
-      </c>
-      <c r="AB61">
-        <v>1</v>
-      </c>
       <c r="AC61">
-        <v>0</v>
+        <v>-2.1097746204853944</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>0.42195492409707891</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>-2</v>
+        <v>-1.8415366630123795</v>
       </c>
       <c r="AG61">
-        <v>0.31732875204227629</v>
+        <v>3.7003294481798843E-2</v>
       </c>
       <c r="AH61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI61">
-        <v>-1.3958411066867862</v>
+        <v>-3.7707483866126688</v>
       </c>
       <c r="AJ61">
-        <v>0.20844345466840553</v>
+        <v>0.31763768319090768</v>
       </c>
       <c r="AK61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL61">
         <v>0</v>
@@ -9523,54 +9566,54 @@
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP61">
-        <v>0</v>
+        <v>4.7291775609904514</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>-54.6</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="AS61">
-        <v>11.3929802949009</v>
+        <v>2.4537386440559095</v>
       </c>
       <c r="AT61">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E62">
-        <v>94.398029513874349</v>
+        <v>93.6</v>
       </c>
       <c r="F62">
-        <v>2.7191972778775324</v>
+        <v>6.6796159686982195</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>-1.081</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0.2162</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -9582,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>-69.222363999999999</v>
+        <v>-82.3</v>
       </c>
       <c r="O62">
-        <v>4.3857963377810565</v>
+        <v>5.2143702951170656</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -9609,49 +9652,49 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>8.66</v>
+        <v>10.270436050858564</v>
       </c>
       <c r="X62">
-        <v>0.22297610464670758</v>
+        <v>0.10951371931483565</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z62">
-        <v>4.4422553262077491</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.28331014372467622</v>
+        <v>0</v>
       </c>
       <c r="AB62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-4.1308496465690387</v>
+        <v>-3.2424001857599851</v>
       </c>
       <c r="AD62">
-        <v>0.82616992931380784</v>
+        <v>0.64848003715199709</v>
       </c>
       <c r="AE62">
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>-2.3350542131060088</v>
+        <v>-3.5667759081346233</v>
       </c>
       <c r="AG62">
-        <v>0.13346437472296552</v>
+        <v>0.56592027387140831</v>
       </c>
       <c r="AH62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI62">
-        <v>-1.3998152287306809</v>
+        <v>-4.9091550554090064</v>
       </c>
       <c r="AJ62">
-        <v>6.8688215356957738E-2</v>
+        <v>0.60703954383878933</v>
       </c>
       <c r="AK62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AL62">
         <v>0</v>
@@ -9672,33 +9715,33 @@
         <v>0</v>
       </c>
       <c r="AR62">
-        <v>-35</v>
+        <v>204.5</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>9.4408891650540205</v>
       </c>
       <c r="AT62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E63">
-        <v>96.432000000000002</v>
+        <v>88.187381608999999</v>
       </c>
       <c r="F63">
-        <v>12.116981802412674</v>
+        <v>0.72495188087407936</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -9722,10 +9765,10 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>-76.272636000000006</v>
+        <v>-87.5</v>
       </c>
       <c r="O63">
-        <v>4.832488061830821</v>
+        <v>5.5438323307745234</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -9749,49 +9792,49 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>9.66</v>
+        <v>9.80286139538212</v>
       </c>
       <c r="X63">
-        <v>0.24872392273524194</v>
+        <v>7.0888148300808597E-3</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z63">
-        <v>4.5386669822446644</v>
+        <v>6.6549999999999994</v>
       </c>
       <c r="AA63">
-        <v>0.4185329646809503</v>
+        <v>0.14849242404917495</v>
       </c>
       <c r="AB63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>-2.2302775143706985</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>0.44605550287413975</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63">
-        <v>-3.4028429570900025</v>
+        <v>-3.2215368249492431</v>
       </c>
       <c r="AG63">
-        <v>0.56113384528000032</v>
+        <v>8.1858281942174385E-2</v>
       </c>
       <c r="AH63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI63">
-        <v>-2.196787626474034</v>
+        <v>-4.6128134783762764</v>
       </c>
       <c r="AJ63">
-        <v>0.29807311025252042</v>
+        <v>0.23403260873049611</v>
       </c>
       <c r="AK63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL63">
         <v>0</v>
@@ -9812,45 +9855,45 @@
         <v>0</v>
       </c>
       <c r="AR63">
-        <v>-35</v>
+        <v>102.5</v>
       </c>
       <c r="AS63">
-        <v>0</v>
+        <v>4.7319860118241417</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>104.05587005119456</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.65273974807507618</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>7.5619999999999994</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -9862,13 +9905,13 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -9880,31 +9923,31 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>-23.8</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>11.525637381635953</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>0.19984160559524264</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z64">
-        <v>10.199999999999999</v>
+        <v>8.1416737508306145</v>
       </c>
       <c r="AA64">
-        <v>0.69146320276503692</v>
+        <v>0.25421187957856911</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -9916,49 +9959,49 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>-4.9397366133846008</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>0.45466857646634756</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>-5.8669835519668307</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>0.22757118902063592</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>1.533336835519298</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>0.68025804777806742</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>55.188213787105745</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>9.8727770120457699</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR64">
-        <v>-27</v>
+        <v>308.39285714285717</v>
       </c>
       <c r="AS64">
-        <v>1.2464743640902618</v>
+        <v>5.139425111448797</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9969,16 +10012,16 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E65">
-        <v>112.20803244366759</v>
+        <v>77.251485714285693</v>
       </c>
       <c r="F65">
-        <v>4.4625575442630749</v>
+        <v>0.96533834384387507</v>
       </c>
       <c r="G65">
         <v>7</v>
@@ -10002,10 +10045,10 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>-85.235128000000003</v>
+        <v>-54.963853999999998</v>
       </c>
       <c r="O65">
-        <v>5.4003343808469122</v>
+        <v>3.4824044666190925</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -10029,49 +10072,49 @@
         <v>0</v>
       </c>
       <c r="W65">
-        <v>10.48</v>
+        <v>7</v>
       </c>
       <c r="X65">
-        <v>0.26983713356784012</v>
+        <v>0.18023472661974055</v>
       </c>
       <c r="Y65">
         <v>1</v>
       </c>
       <c r="Z65">
-        <v>7.5961428571428575</v>
+        <v>1.6110213059370522</v>
       </c>
       <c r="AA65">
-        <v>0.35617946252389365</v>
+        <v>0.10675059659978832</v>
       </c>
       <c r="AB65">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>-4.7471469690201067</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>0.94942939380402136</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65">
-        <v>-4.6359639287313668</v>
+        <v>-0.5737975003434046</v>
       </c>
       <c r="AG65">
-        <v>0.40136383442810358</v>
+        <v>9.5464368197886035E-2</v>
       </c>
       <c r="AH65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI65">
-        <v>-3.4780745027655433</v>
+        <v>1.3026136962115185</v>
       </c>
       <c r="AJ65">
-        <v>0.53164878715036823</v>
+        <v>7.889766480857377E-2</v>
       </c>
       <c r="AK65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL65">
         <v>0</v>
@@ -10083,19 +10126,19 @@
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>4.8710528878201647</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>-53</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="AS65">
-        <v>2.7386127875258306</v>
+        <v>0.23177575369309009</v>
       </c>
       <c r="AT65">
         <v>5</v>
@@ -10109,19 +10152,19 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E66">
-        <v>117.3274</v>
+        <v>83.510311011427788</v>
       </c>
       <c r="F66">
-        <v>8.7652894441655516</v>
+        <v>2.0167132760553788</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -10142,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>-92.642902000000007</v>
+        <v>-59.087598</v>
       </c>
       <c r="O66">
-        <v>5.8696767465642949</v>
+        <v>3.7436769844595208</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -10169,49 +10212,49 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>11.18</v>
+        <v>7.48</v>
       </c>
       <c r="X66">
-        <v>0.28786060622981419</v>
+        <v>0.19259367930223703</v>
       </c>
       <c r="Y66">
         <v>1</v>
       </c>
       <c r="Z66">
-        <v>8.125</v>
+        <v>2.309034364660989</v>
       </c>
       <c r="AA66">
-        <v>5.5075705472860809E-2</v>
+        <v>0.41659773461009664</v>
       </c>
       <c r="AB66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>-4.7375489102695703</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>0.94750978205391412</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF66">
-        <v>-5.2448925746858528</v>
+        <v>-0.86296934379017121</v>
       </c>
       <c r="AG66">
-        <v>0.21714113940771862</v>
+        <v>0.22717615065451793</v>
       </c>
       <c r="AH66">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AI66">
-        <v>-5.5036251812831916</v>
+        <v>0.6479393964825203</v>
       </c>
       <c r="AJ66">
-        <v>0.83723737685498756</v>
+        <v>4.9413997541154983E-2</v>
       </c>
       <c r="AK66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL66">
         <v>0</v>
@@ -10223,22 +10266,22 @@
         <v>0</v>
       </c>
       <c r="AO66">
-        <v>0</v>
+        <v>66.64</v>
       </c>
       <c r="AP66">
-        <v>0</v>
+        <v>5.2525398777400616</v>
       </c>
       <c r="AQ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>-25</v>
+        <v>-50.183333333333337</v>
       </c>
       <c r="AS66">
-        <v>0</v>
+        <v>10.907871775312827</v>
       </c>
       <c r="AT66">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -10249,19 +10292,19 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>88.7</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>6.3299352182001298</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -10318,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>7.4342989408727043</v>
+        <v>3.8510326049913961</v>
       </c>
       <c r="AA67">
-        <v>1.2838945315165156</v>
+        <v>0.48041586212717508</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -10336,22 +10379,22 @@
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>-3.8839740178332058</v>
+        <v>-1.7569619513137056</v>
       </c>
       <c r="AG67">
-        <v>0.14303515418375298</v>
+        <v>0.27876727169807036</v>
       </c>
       <c r="AH67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI67">
-        <v>-5.8270387665542565</v>
+        <v>-0.37927796599702324</v>
       </c>
       <c r="AJ67">
-        <v>7.1528670243570947E-3</v>
+        <v>4.689946047095362E-2</v>
       </c>
       <c r="AK67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL67">
         <v>0</v>
@@ -10372,45 +10415,45 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>-45.5</v>
+        <v>-31</v>
       </c>
       <c r="AS67">
-        <v>3.5355339059327378</v>
+        <v>1.4311372328443748</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E68">
-        <v>77.099999999999994</v>
+        <v>77.779285878211255</v>
       </c>
       <c r="F68">
-        <v>5.5021195639597513</v>
+        <v>11.289652223038836</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -10422,13 +10465,13 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>-65.7</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>4.1626261043644135</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -10449,22 +10492,22 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>7.4756656115367477</v>
+        <v>0</v>
       </c>
       <c r="X68">
-        <v>0.19248207825656016</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>4.2356685525576738</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>0.14754694795495324</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -10476,22 +10519,22 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>-0.83534495289423183</v>
+        <v>-2</v>
       </c>
       <c r="AG68">
-        <v>0.13253948571337032</v>
+        <v>0.31732875204227629</v>
       </c>
       <c r="AH68">
         <v>1</v>
       </c>
       <c r="AI68">
-        <v>0</v>
+        <v>-1.3958411066867862</v>
       </c>
       <c r="AJ68">
-        <v>0</v>
+        <v>0.20844345466840553</v>
       </c>
       <c r="AK68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL68">
         <v>0</v>
@@ -10512,45 +10555,45 @@
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>51.5</v>
+        <v>-54.6</v>
       </c>
       <c r="AS68">
-        <v>2.1213203435596424</v>
+        <v>11.3929802949009</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="E69">
-        <v>79.976666666666674</v>
+        <v>94.398029513874349</v>
       </c>
       <c r="F69">
-        <v>7.7949748770174621</v>
+        <v>2.7191972778775324</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>-1.081</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.2162</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -10562,10 +10605,10 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>-75.3</v>
+        <v>-69.222363999999999</v>
       </c>
       <c r="O69">
-        <v>4.7708637086551038</v>
+        <v>4.3857963377810565</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -10589,49 +10632,49 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>9.062289783061221</v>
+        <v>8.66</v>
       </c>
       <c r="X69">
-        <v>0.23333418879984386</v>
+        <v>0.22297610464670758</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>3.4536576318955827</v>
+        <v>4.4422553262077491</v>
       </c>
       <c r="AA69">
-        <v>0.12659127947609147</v>
+        <v>0.28331014372467622</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>-4.1308496465690387</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>0.82616992931380784</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF69">
-        <v>-2.4901757792294523</v>
+        <v>-2.3350542131060088</v>
       </c>
       <c r="AG69">
-        <v>0.15804862177910686</v>
+        <v>0.13346437472296552</v>
       </c>
       <c r="AH69">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI69">
-        <v>-0.99160050980834902</v>
+        <v>-1.3998152287306809</v>
       </c>
       <c r="AJ69">
-        <v>0.18611663456422731</v>
+        <v>6.8688215356957738E-2</v>
       </c>
       <c r="AK69">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL69">
         <v>0</v>
@@ -10643,45 +10686,45 @@
         <v>0</v>
       </c>
       <c r="AO69">
-        <v>64.656964656964661</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>5.096237773624499</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>63.741666666666667</v>
+        <v>-35</v>
       </c>
       <c r="AS69">
-        <v>0.94995613933837286</v>
+        <v>0</v>
       </c>
       <c r="AT69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E70">
-        <v>65.7</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="F70">
-        <v>4.688576593413174</v>
+        <v>12.116981802412674</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -10702,10 +10745,10 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>-64.900000000000006</v>
+        <v>-76.272636000000006</v>
       </c>
       <c r="O70">
-        <v>4.11193963734019</v>
+        <v>4.832488061830821</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -10729,22 +10772,22 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>8.5342489113816207</v>
+        <v>9.66</v>
       </c>
       <c r="X70">
-        <v>0.21973828849252638</v>
+        <v>0.24872392273524194</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
       <c r="Z70">
-        <v>5.1021482939458087</v>
+        <v>4.5386669822446644</v>
       </c>
       <c r="AA70">
-        <v>1.5306444881837427</v>
+        <v>0.4185329646809503</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -10756,72 +10799,72 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>-2.1437560717924429</v>
+        <v>-3.4028429570900025</v>
       </c>
       <c r="AG70">
-        <v>0.57534852774613077</v>
+        <v>0.56113384528000032</v>
       </c>
       <c r="AH70">
+        <v>5</v>
+      </c>
+      <c r="AI70">
+        <v>-2.196787626474034</v>
+      </c>
+      <c r="AJ70">
+        <v>0.29807311025252042</v>
+      </c>
+      <c r="AK70">
+        <v>4</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>-35</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
         <v>2</v>
-      </c>
-      <c r="AI70">
-        <v>-1.9385377595649462</v>
-      </c>
-      <c r="AJ70">
-        <v>0.23970908720513637</v>
-      </c>
-      <c r="AK70">
-        <v>1</v>
-      </c>
-      <c r="AL70">
-        <v>0</v>
-      </c>
-      <c r="AM70">
-        <v>0</v>
-      </c>
-      <c r="AN70">
-        <v>0</v>
-      </c>
-      <c r="AO70">
-        <v>0</v>
-      </c>
-      <c r="AP70">
-        <v>0</v>
-      </c>
-      <c r="AQ70">
-        <v>0</v>
-      </c>
-      <c r="AR70">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AS70">
-        <v>3.2500664900723866</v>
-      </c>
-      <c r="AT70">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E71">
-        <v>95.3</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>6.8009337800955159</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -10842,13 +10885,13 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>-82.9</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>5.2523851453852348</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -10869,19 +10912,19 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>8.4929739722986248</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>0.21867554886940208</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>6.4226390597038554</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA71">
-        <v>1.2845278119407713</v>
+        <v>0.69146320276503692</v>
       </c>
       <c r="AB71">
         <v>1</v>
@@ -10896,22 +10939,22 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-1.8907497643218214</v>
+        <v>0</v>
       </c>
       <c r="AG71">
-        <v>9.4527481783361011E-2</v>
+        <v>0</v>
       </c>
       <c r="AH71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI71">
-        <v>-2.8168194218021276</v>
+        <v>0</v>
       </c>
       <c r="AJ71">
-        <v>0.34831264394531203</v>
+        <v>0</v>
       </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>0</v>
@@ -10932,36 +10975,36 @@
         <v>0</v>
       </c>
       <c r="AR71">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="AS71">
-        <v>6</v>
+        <v>1.2464743640902618</v>
       </c>
       <c r="AT71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E72">
-        <v>94.890864162898467</v>
+        <v>112.20803244366759</v>
       </c>
       <c r="F72">
-        <v>6.7717364481417759</v>
+        <v>4.4625575442630749</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -10982,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>-85.235128000000003</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>5.4003343808469122</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -11009,22 +11052,22 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>10.48</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>0.26983713356784012</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>6.089186783305113</v>
+        <v>7.5961428571428575</v>
       </c>
       <c r="AA72">
-        <v>1.2178373566610228</v>
+        <v>0.35617946252389365</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -11036,22 +11079,22 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>-9.755026966610103</v>
+        <v>-4.6359639287313668</v>
       </c>
       <c r="AG72">
-        <v>1.5477752667265681</v>
+        <v>0.40136383442810358</v>
       </c>
       <c r="AH72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI72">
-        <v>-4.1239577006727393</v>
+        <v>-3.4780745027655433</v>
       </c>
       <c r="AJ72">
-        <v>0.22861214103520214</v>
+        <v>0.53164878715036823</v>
       </c>
       <c r="AK72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -11072,36 +11115,36 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>-9.9</v>
+        <v>-53</v>
       </c>
       <c r="AS72">
-        <v>2.97</v>
+        <v>2.7386127875258306</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E73">
-        <v>95.314065814702502</v>
+        <v>117.3274</v>
       </c>
       <c r="F73">
-        <v>6.8019375647162388</v>
+        <v>8.7652894441655516</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -11122,13 +11165,13 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>-92.642902000000007</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>5.8696767465642949</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -11149,22 +11192,22 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>0.28786060622981419</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73">
-        <v>6.4362128672865646</v>
+        <v>8.125</v>
       </c>
       <c r="AA73">
-        <v>1.9308638601859693</v>
+        <v>5.5075705472860809E-2</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -11176,22 +11219,22 @@
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>-1.2839966563652008</v>
+        <v>-5.2448925746858528</v>
       </c>
       <c r="AG73">
-        <v>0.20372452829541232</v>
+        <v>0.21714113940771862</v>
       </c>
       <c r="AH73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI73">
-        <v>-2.6450973005369249</v>
+        <v>-5.5036251812831916</v>
       </c>
       <c r="AJ73">
-        <v>0.32707841585854547</v>
+        <v>0.83723737685498756</v>
       </c>
       <c r="AK73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL73">
         <v>0</v>
@@ -11212,27 +11255,27 @@
         <v>0</v>
       </c>
       <c r="AR73">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="AS73">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -11298,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>7.4342989408727043</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1.2838945315165156</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -11316,31 +11359,31 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>-4.8499999999999996</v>
+        <v>-3.8839740178332058</v>
       </c>
       <c r="AG74">
-        <v>0.76952222370251988</v>
+        <v>0.14303515418375298</v>
       </c>
       <c r="AH74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI74">
-        <v>-4.0495573269641527</v>
+        <v>-5.8270387665542565</v>
       </c>
       <c r="AJ74">
-        <v>0.50074634122644102</v>
+        <v>7.1528670243570947E-3</v>
       </c>
       <c r="AK74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL74">
-        <v>2.0133316945093855</v>
+        <v>0</v>
       </c>
       <c r="AM74">
-        <v>0.40266633890187714</v>
+        <v>0</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -11352,152 +11395,1272 @@
         <v>0</v>
       </c>
       <c r="AR74">
-        <v>39.783333333333331</v>
+        <v>-45.5</v>
       </c>
       <c r="AS74">
-        <v>68.339020088575069</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AT74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>1.92</v>
+      </c>
+      <c r="AA75">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>-2.9714942157058073</v>
+      </c>
+      <c r="AD75">
+        <v>0.87418900715655345</v>
+      </c>
+      <c r="AE75">
+        <v>3</v>
+      </c>
+      <c r="AF75">
+        <v>1.3751447787200113</v>
+      </c>
+      <c r="AG75">
+        <v>1.2205898698191469</v>
+      </c>
+      <c r="AH75">
+        <v>5</v>
+      </c>
+      <c r="AI75">
+        <v>1.4130798169683882</v>
+      </c>
+      <c r="AJ75">
+        <v>0.23236442158435855</v>
+      </c>
+      <c r="AK75">
+        <v>5</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>55.445454545454552</v>
+      </c>
+      <c r="AS75">
+        <v>3.2200508183454608</v>
+      </c>
+      <c r="AT75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="F76">
+        <v>5.5021195639597513</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>-65.7</v>
+      </c>
+      <c r="O76">
+        <v>4.1626261043644135</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>7.4756656115367477</v>
+      </c>
+      <c r="X76">
+        <v>0.19248207825656016</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>-0.83534495289423183</v>
+      </c>
+      <c r="AG76">
+        <v>0.13253948571337032</v>
+      </c>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>51.5</v>
+      </c>
+      <c r="AS76">
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77">
+        <v>79.976666666666674</v>
+      </c>
+      <c r="F77">
+        <v>7.7949748770174621</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>-75.3</v>
+      </c>
+      <c r="O77">
+        <v>4.7708637086551038</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>9.062289783061221</v>
+      </c>
+      <c r="X77">
+        <v>0.23333418879984386</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>3.4536576318955827</v>
+      </c>
+      <c r="AA77">
+        <v>0.12659127947609147</v>
+      </c>
+      <c r="AB77">
+        <v>3</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>-2.4901757792294523</v>
+      </c>
+      <c r="AG77">
+        <v>0.15804862177910686</v>
+      </c>
+      <c r="AH77">
+        <v>3</v>
+      </c>
+      <c r="AI77">
+        <v>-0.99160050980834902</v>
+      </c>
+      <c r="AJ77">
+        <v>0.18611663456422731</v>
+      </c>
+      <c r="AK77">
+        <v>2</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>64.656964656964661</v>
+      </c>
+      <c r="AP77">
+        <v>5.096237773624499</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>63.741666666666667</v>
+      </c>
+      <c r="AS77">
+        <v>0.94995613933837286</v>
+      </c>
+      <c r="AT77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78">
+        <v>65.7</v>
+      </c>
+      <c r="F78">
+        <v>4.688576593413174</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>-64.900000000000006</v>
+      </c>
+      <c r="O78">
+        <v>4.11193963734019</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>8.5342489113816207</v>
+      </c>
+      <c r="X78">
+        <v>0.21973828849252638</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>5.1021482939458087</v>
+      </c>
+      <c r="AA78">
+        <v>1.5306444881837427</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>-2.1437560717924429</v>
+      </c>
+      <c r="AG78">
+        <v>0.57534852774613077</v>
+      </c>
+      <c r="AH78">
+        <v>2</v>
+      </c>
+      <c r="AI78">
+        <v>-1.9385377595649462</v>
+      </c>
+      <c r="AJ78">
+        <v>0.23970908720513637</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AS78">
+        <v>3.2500664900723866</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79">
+        <v>95.3</v>
+      </c>
+      <c r="F79">
+        <v>6.8009337800955159</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>-82.9</v>
+      </c>
+      <c r="O79">
+        <v>5.2523851453852348</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>8.4929739722986248</v>
+      </c>
+      <c r="X79">
+        <v>0.21867554886940208</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>6.4226390597038554</v>
+      </c>
+      <c r="AA79">
+        <v>1.2845278119407713</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>-1.8907497643218214</v>
+      </c>
+      <c r="AG79">
+        <v>9.4527481783361011E-2</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
+        <v>-2.8168194218021276</v>
+      </c>
+      <c r="AJ79">
+        <v>0.34831264394531203</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>-20</v>
+      </c>
+      <c r="AS79">
+        <v>6</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80">
+        <v>94.890864162898467</v>
+      </c>
+      <c r="F80">
+        <v>6.7717364481417759</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>6.089186783305113</v>
+      </c>
+      <c r="AA80">
+        <v>1.2178373566610228</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>-9.755026966610103</v>
+      </c>
+      <c r="AG80">
+        <v>1.5477752667265681</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>-4.1239577006727393</v>
+      </c>
+      <c r="AJ80">
+        <v>0.22861214103520214</v>
+      </c>
+      <c r="AK80">
+        <v>2</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>-9.9</v>
+      </c>
+      <c r="AS80">
+        <v>2.97</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81">
+        <v>95.314065814702502</v>
+      </c>
+      <c r="F81">
+        <v>6.8019375647162388</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>6.4362128672865646</v>
+      </c>
+      <c r="AA81">
+        <v>1.9308638601859693</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>-1.2839966563652008</v>
+      </c>
+      <c r="AG81">
+        <v>0.20372452829541232</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>-2.6450973005369249</v>
+      </c>
+      <c r="AJ81">
+        <v>0.32707841585854547</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>-20</v>
+      </c>
+      <c r="AS81">
+        <v>6</v>
+      </c>
+      <c r="AT81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="AG82">
+        <v>0.76952222370251988</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>-4.0495573269641527</v>
+      </c>
+      <c r="AJ82">
+        <v>0.50074634122644102</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>2.0133316945093855</v>
+      </c>
+      <c r="AM82">
+        <v>0.40266633890187714</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>39.783333333333331</v>
+      </c>
+      <c r="AS82">
+        <v>68.339020088575069</v>
+      </c>
+      <c r="AT82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
         <v>167</v>
       </c>
-      <c r="E75">
+      <c r="E83">
         <v>110.96000000000001</v>
       </c>
-      <c r="F75">
+      <c r="F83">
         <v>9.9560634791065876</v>
       </c>
-      <c r="G75">
+      <c r="G83">
         <v>2</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
         <v>-101.7366255</v>
       </c>
-      <c r="O75">
+      <c r="O83">
         <v>20.17145766310653</v>
       </c>
-      <c r="P75">
+      <c r="P83">
         <v>2</v>
       </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
         <v>10.330951337636964</v>
       </c>
-      <c r="X75">
+      <c r="X83">
         <v>1.3307061432192995</v>
       </c>
-      <c r="Y75">
+      <c r="Y83">
         <v>2</v>
       </c>
-      <c r="Z75">
+      <c r="Z83">
         <v>6.0022541387692874</v>
       </c>
-      <c r="AA75">
+      <c r="AA83">
         <v>1.2004508277538575</v>
       </c>
-      <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
         <v>-4.0845351391156468</v>
       </c>
-      <c r="AG75">
+      <c r="AG83">
         <v>0.98176864457868018</v>
       </c>
-      <c r="AH75">
+      <c r="AH83">
         <v>2</v>
       </c>
-      <c r="AI75">
+      <c r="AI83">
         <v>-3.3038705028971718</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ83">
         <v>0.76711407451090985</v>
       </c>
-      <c r="AK75">
+      <c r="AK83">
         <v>2</v>
       </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <v>0</v>
-      </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0</v>
-      </c>
-      <c r="AQ75">
-        <v>0</v>
-      </c>
-      <c r="AR75">
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
         <v>-68.3</v>
       </c>
-      <c r="AS75">
+      <c r="AS83">
         <v>3.1531184839764772</v>
       </c>
-      <c r="AT75">
+      <c r="AT83">
         <v>1</v>
       </c>
     </row>
